--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_77.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_77.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32432-d657785-Reviews-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>188</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Best-Western-Plus-Route-66-Glendora-Inn.h1696692.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_77.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_77.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1888 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r581694384-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>32432</t>
+  </si>
+  <si>
+    <t>657785</t>
+  </si>
+  <si>
+    <t>581694384</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Best Western Glendora</t>
+  </si>
+  <si>
+    <t>Excellent Glendora motel. Easy to get to from the freeway and is within walking distance of downtown Glendora. Staff very accommodative, very clean quiet place. This is the classic best western motel. A good place to stay.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r580173383-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>580173383</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>had a good night sleep - comfortable bed and soft towels unfortunately it was a short stay was unable to use any of the amenities had to leave early, but fortunately they had coffee 24/7 that was a pluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r561058304-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>561058304</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Stay Away From This Property</t>
+  </si>
+  <si>
+    <t>We recently booked a stay here with our travel agent at AAA.  Upon arrival, we realized that this property did not deserve a three diamond rating – two diamonds would have been generous.  It had a dismal appearance and butted up against an auto body repair facility.  To our further dismay, the front desk staff proved to be quite incompetent.  In fact, one woman in particular was nasty, arrogant, and full of misinformation.  Although breakfast was included with our stay, the breakfast area was not appealing and didn’t seem sanitary, so we left and ate elsewhere for breakfast.     Although we tried several times to discuss the many problems with the manager by telephone, the staff consistently informed us that she was never available.  The one time that we were able to reach the manager, she told us that she would arrange a time to talk with the owner, but that never materialized either.  We’ve since documented our concerns regarding this property with AAA and with Corporate Best Western.  Our advice to those traveling in this area:  Stay Away From This Property.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We recently booked a stay here with our travel agent at AAA.  Upon arrival, we realized that this property did not deserve a three diamond rating – two diamonds would have been generous.  It had a dismal appearance and butted up against an auto body repair facility.  To our further dismay, the front desk staff proved to be quite incompetent.  In fact, one woman in particular was nasty, arrogant, and full of misinformation.  Although breakfast was included with our stay, the breakfast area was not appealing and didn’t seem sanitary, so we left and ate elsewhere for breakfast.     Although we tried several times to discuss the many problems with the manager by telephone, the staff consistently informed us that she was never available.  The one time that we were able to reach the manager, she told us that she would arrange a time to talk with the owner, but that never materialized either.  We’ve since documented our concerns regarding this property with AAA and with Corporate Best Western.  Our advice to those traveling in this area:  Stay Away From This Property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r551071278-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>551071278</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Nice to look at, good location, but poor customer service</t>
+  </si>
+  <si>
+    <t>My husband and I were in need of a hotel to stay in due to car troubles.  We are Best Western "Gold" members and we like to stay in Best Westerns when we can.....depending on their prices.  This BW was very pricey but we didn't have the luxury this time to shop around.  It was located by the auto shop we were having our car towed to.  The assistant manager took off a few dollars for the night....but this was the normal discount given for a senior or for a government employee so he really wasn't doing us any favor and he didn't mention it, I had to ask for it.  We had to extend our stay another night and this time we dealt with Summer, the front desk manager.  She was really rude and didn't even "pretend" to have sympathy for our situation.  She was more interested in training the new girl that she forgot that she had customers standing in front of her.  Later during her shift, we passed by the front desk (a couple times...in and out) and she didn't even smile or acknowledge us.  In my opinion, she is in the wrong job!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I were in need of a hotel to stay in due to car troubles.  We are Best Western "Gold" members and we like to stay in Best Westerns when we can.....depending on their prices.  This BW was very pricey but we didn't have the luxury this time to shop around.  It was located by the auto shop we were having our car towed to.  The assistant manager took off a few dollars for the night....but this was the normal discount given for a senior or for a government employee so he really wasn't doing us any favor and he didn't mention it, I had to ask for it.  We had to extend our stay another night and this time we dealt with Summer, the front desk manager.  She was really rude and didn't even "pretend" to have sympathy for our situation.  She was more interested in training the new girl that she forgot that she had customers standing in front of her.  Later during her shift, we passed by the front desk (a couple times...in and out) and she didn't even smile or acknowledge us.  In my opinion, she is in the wrong job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r549882373-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>549882373</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Home style hotel</t>
+  </si>
+  <si>
+    <t>We have always had a positive experience.  Friendly, professional staff.  Very clean.  Convenient.  I would definitely recommend the hotel to friends.  Cookies when we arrived.  Has a small hotel, homes style feel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r547983835-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>547983835</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Our stay was very comfortable.  Hotel lobby, rooms and dining area are very clean and up-to-date decor.  We were offered warm cookies and wine between 5:00-7:00pm.  It was quiet and the breakfast was fresh and good and offered various food options to choose from.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r538645946-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>538645946</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Good for a night away</t>
+  </si>
+  <si>
+    <t>For a Hotel on a busy street is a really good for a night with your Loved one or a weekend get away with the family. Breakfast is full of good things to eat, lots of choices to eat. Rooms a quiet and clean. You can't even hear your neighbors.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r537549667-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>537549667</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Glendora visit</t>
+  </si>
+  <si>
+    <t>This was a great hotel very convenient for our visit to family. Clean comfortable rooms (great air conditioner).  Courteous staff.  Fine breakfast (good waffles) and good beds.  Pretty spacious rooms. There was a noisy group that met in the lobby for a while one night but only for 15-20 minutes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r535652723-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>535652723</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Trip to Calif</t>
+  </si>
+  <si>
+    <t>This BW Plus was recently refurbished and is a pleasant place to stay. The location is on the Route 66 Highway, which cuts through that area.  I found the staff to be quite nice and helpful with directions, as well as providing with me sundries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r532725999-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>532725999</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Convenient. Clean. Met Expectations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will stay here again. Very nice hotel. Staff members were all quite efficient and helpful. Room and bathroom very clean.  Breakfast was available earlier than noted, which was nice. Hotel is conveniently located. Freeways not too far away. Would definitely recommend this hotel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r532770755-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>532770755</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>It is pricey but very clean, breakfast is always good, with a wide variety of breakfast items.  Wifi is included in the price and if you need anything special when you call the front desk it is almost there immediately.  Very friendly and helpful staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r532770986-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>532770986</t>
+  </si>
+  <si>
+    <t>Worst Best Western Experience Ever</t>
+  </si>
+  <si>
+    <t>Reserved a handicap room (116) months in advance after checking to make sure everything would be in order as I am physically disabled.  Upon arrival,  the bathroom room door opens toward the entry and cannot remain open unless propped open and then only to 45 degrees.  If closed, it would be hard for me to open.  So door remains open but a tight opening between door and wall, which had scrape marks on it.  So to go from /to bathroom was a tight space to maneuver in wheelchair or walker.  Spacious bathroom but grab bars only on left/wall of toilet and in back of toilet which is ADA compliance....but WHO can grab the back bar unless you're a monkey.  Who determines these things if not in a w/c or with a walker?  I extended my right arm and still could not reach the sink counter, so each time my caregiver had to help me.  Many other glitches in the room, but the accessibility issues the worst, plus no manager on site or accessible.  Don't stay here if you are physically disabled.  Lower bed height (25:) was fine but furniture has nothing to do with ADA......see how crazy rules can be?MoreShow less</t>
+  </si>
+  <si>
+    <t>Reserved a handicap room (116) months in advance after checking to make sure everything would be in order as I am physically disabled.  Upon arrival,  the bathroom room door opens toward the entry and cannot remain open unless propped open and then only to 45 degrees.  If closed, it would be hard for me to open.  So door remains open but a tight opening between door and wall, which had scrape marks on it.  So to go from /to bathroom was a tight space to maneuver in wheelchair or walker.  Spacious bathroom but grab bars only on left/wall of toilet and in back of toilet which is ADA compliance....but WHO can grab the back bar unless you're a monkey.  Who determines these things if not in a w/c or with a walker?  I extended my right arm and still could not reach the sink counter, so each time my caregiver had to help me.  Many other glitches in the room, but the accessibility issues the worst, plus no manager on site or accessible.  Don't stay here if you are physically disabled.  Lower bed height (25:) was fine but furniture has nothing to do with ADA......see how crazy rules can be?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r520124751-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>520124751</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Best Western Hotel &amp; Resorts</t>
+  </si>
+  <si>
+    <t>My stayed at Best Western Hotel was for 1 night but it has been the best stay at a hotel for me and my overall experiences at other Hotels. I will recommend this Hotel to all my friends and relatives.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r518222558-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>518222558</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is well placed and quiet. Close to Azusa Pacific University. close to lots of shopping . Helpful staff. There is local transportation. Rooms are spacious and comfortable. I recommend this hotel highly. The free breakfast was delicious and a plus. Food was high quality. This hotel is well  manged.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r518221876-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>518221876</t>
+  </si>
+  <si>
+    <t>Typical Best Western hotel, comfortable</t>
+  </si>
+  <si>
+    <t>I like this chain in general and this hotel is a good value for the price.  The rooms are comfortable and functional enough, but the decor is dark and dated an some of the mattresses sub-par.  Also, the lighting in the rooms makes it impossible to read at night.   The staff is very helpful and professional.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r507235540-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>507235540</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Lacking customer service</t>
+  </si>
+  <si>
+    <t>The hotel is clean, quiet, and moderately priced. I enjoyed my stay, and I had intended to book 8 straight weeks of business travel. I asked the clerk whether I could store my 1 suitcase for the weekend between stays. Unlike any other hotel I have stayed in, this hotel could not accommodate my bag. Actually the desk clerk was not able to answer this request without first phoning the hotel manager. The manager declined my request due to ongoing construction. I'm simply sorry that a 50-room hotel has no space to accommodate such a simple request. I need small requests to be satisfied from hotels where I want to conduct business travel, and this refusal showed the height of inconsideration for the needs of their customer. I will not return to be served in this manner, and another hotel will earn my $6000 in lodging.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>The hotel is clean, quiet, and moderately priced. I enjoyed my stay, and I had intended to book 8 straight weeks of business travel. I asked the clerk whether I could store my 1 suitcase for the weekend between stays. Unlike any other hotel I have stayed in, this hotel could not accommodate my bag. Actually the desk clerk was not able to answer this request without first phoning the hotel manager. The manager declined my request due to ongoing construction. I'm simply sorry that a 50-room hotel has no space to accommodate such a simple request. I need small requests to be satisfied from hotels where I want to conduct business travel, and this refusal showed the height of inconsideration for the needs of their customer. I will not return to be served in this manner, and another hotel will earn my $6000 in lodging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r503054326-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>503054326</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Efficient and Clean</t>
+  </si>
+  <si>
+    <t>Hotel is clean and delivers as expected.  We've stayed here several times and never have any problems.  Pool is in the back which makes for a quite setting. Made our reservations directly on the BW website.  They were nice enough to hold our room for a very late check in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r493663049-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>493663049</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is in a good location, has clean room &amp; common areas. Friendly staff. Breakfast is sufficient with healthy options. Guessing the relatively high price reflects the lack of  viable lodging options in Glendora.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r492354307-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>492354307</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>Very Pleasant! We enjoyed our stay very much ! ! ! Staff was great. really enjoyed the spa. W e  w i l l   b e  b a c k .  the  weather  was  terrific  while  we  were  there. I don't know what else to say, awesome, very convenient in Glendora Ca.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r485648300-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>485648300</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>A Room Without a View</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a couple of days back in March. It’s a nice, newer looking, clean hotel right in the midst of a mostly business oriented location on Hwy 66 in Glendora. It is not, however, within a reasonable walking distance of the old downtown Glendora area, unless you really enjoy walking. 
+My room, located on the second floor, was literally an arms-length away from the elevator door. I was at first concerned that the elevator’s use would create undue noise entering my room, especially at night. It didn’t. Either this was taken into account when the hotel was built, or nobody used the elevator during the evening hours. I cannot say which it was. 
+The rooms were large enough not to feel cramped. It was clean and contained all the amenities you expect in today’s up-to-date hotels, i.e. microwave, refrigerator, coffee maker, etc. The bathroom lights were on some kind of gradual brightness mode. When I first turned them on I thought they were broken. But then the lights slowly became brighter. A nice feature for those late night or early morning trips to the facility. The hot water supply was, well, very hot. I had to be careful not to turn it up too high. The only thing I didn’t like about the bed was the chiclet sized pillows. Having four was nice, but they were far too small.
+On the first morning I was...I stayed at this hotel for a couple of days back in March. It’s a nice, newer looking, clean hotel right in the midst of a mostly business oriented location on Hwy 66 in Glendora. It is not, however, within a reasonable walking distance of the old downtown Glendora area, unless you really enjoy walking.  My room, located on the second floor, was literally an arms-length away from the elevator door. I was at first concerned that the elevator’s use would create undue noise entering my room, especially at night. It didn’t. Either this was taken into account when the hotel was built, or nobody used the elevator during the evening hours. I cannot say which it was. The rooms were large enough not to feel cramped. It was clean and contained all the amenities you expect in today’s up-to-date hotels, i.e. microwave, refrigerator, coffee maker, etc. The bathroom lights were on some kind of gradual brightness mode. When I first turned them on I thought they were broken. But then the lights slowly became brighter. A nice feature for those late night or early morning trips to the facility. The hot water supply was, well, very hot. I had to be careful not to turn it up too high. The only thing I didn’t like about the bed was the chiclet sized pillows. Having four was nice, but they were far too small.On the first morning I was fairly happy with the Continental breakfast. Nothing special about it, but it was hot and there was plenty of it. On the morning of day two, I was a bit disappointed. It was the same food, served colder. Not the same kind of food. No, it was the same food; overcooked, dried out and cold. Uhg.All in all, yes, I would stay here again. It is not a large hotel. There is no spectacular view from the rooms, but it was quiet and clean, a big plus in my book.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a couple of days back in March. It’s a nice, newer looking, clean hotel right in the midst of a mostly business oriented location on Hwy 66 in Glendora. It is not, however, within a reasonable walking distance of the old downtown Glendora area, unless you really enjoy walking. 
+My room, located on the second floor, was literally an arms-length away from the elevator door. I was at first concerned that the elevator’s use would create undue noise entering my room, especially at night. It didn’t. Either this was taken into account when the hotel was built, or nobody used the elevator during the evening hours. I cannot say which it was. 
+The rooms were large enough not to feel cramped. It was clean and contained all the amenities you expect in today’s up-to-date hotels, i.e. microwave, refrigerator, coffee maker, etc. The bathroom lights were on some kind of gradual brightness mode. When I first turned them on I thought they were broken. But then the lights slowly became brighter. A nice feature for those late night or early morning trips to the facility. The hot water supply was, well, very hot. I had to be careful not to turn it up too high. The only thing I didn’t like about the bed was the chiclet sized pillows. Having four was nice, but they were far too small.
+On the first morning I was...I stayed at this hotel for a couple of days back in March. It’s a nice, newer looking, clean hotel right in the midst of a mostly business oriented location on Hwy 66 in Glendora. It is not, however, within a reasonable walking distance of the old downtown Glendora area, unless you really enjoy walking.  My room, located on the second floor, was literally an arms-length away from the elevator door. I was at first concerned that the elevator’s use would create undue noise entering my room, especially at night. It didn’t. Either this was taken into account when the hotel was built, or nobody used the elevator during the evening hours. I cannot say which it was. The rooms were large enough not to feel cramped. It was clean and contained all the amenities you expect in today’s up-to-date hotels, i.e. microwave, refrigerator, coffee maker, etc. The bathroom lights were on some kind of gradual brightness mode. When I first turned them on I thought they were broken. But then the lights slowly became brighter. A nice feature for those late night or early morning trips to the facility. The hot water supply was, well, very hot. I had to be careful not to turn it up too high. The only thing I didn’t like about the bed was the chiclet sized pillows. Having four was nice, but they were far too small.On the first morning I was fairly happy with the Continental breakfast. Nothing special about it, but it was hot and there was plenty of it. On the morning of day two, I was a bit disappointed. It was the same food, served colder. Not the same kind of food. No, it was the same food; overcooked, dried out and cold. Uhg.All in all, yes, I would stay here again. It is not a large hotel. There is no spectacular view from the rooms, but it was quiet and clean, a big plus in my book.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r482525153-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>482525153</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We were in Glendora for a wedding. We found the location to be very convenient.  We were with in a couple of mile of restaurants that were recommended by Trip Adviser. &amp; also a grocery store. Breakfast was the standard complimentary fare. .</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r475665953-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>475665953</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Football camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel. Accommodations were very nice. Great location from camp. The only downside was the breakfast was terrible! Eggs and bacon were like eating soup. Eggs were runny and bacon was kept heated in its own grease. Cold foods were good. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r474870084-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>474870084</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Overall it was very clean and presentable. i wish there were water bottles in the room or the vending machine took credit cards. the window view was of a junk yard. nothing much around the area. no one was ever at the front desk had to wait every time i went up to ask for something also my phone didn't work in the room. i do appreciate the new addition of make up remover and having pantene for shampoo and conditioner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r472818350-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>472818350</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Close to Azusa Pacific College</t>
+  </si>
+  <si>
+    <t>Our daughter will be attending Azusa Pacific College in the fall and we stayed here over spring break, very clean &amp; friendly staff.  We also liked the breakfast, it was hot and had many options.  We will stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r455428190-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>455428190</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Nice location, clean, staff very helpful.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel for three nights. Check in went smooth, the staff were very helpful and professional.The hotel is centrally located in town and walking distance to restaurants. Improvements would be, a better selection and quality fruit at the breakfast buffet and pillows.  Other than that I recommend the hotel.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r454026500-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>454026500</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>New, modern, and reasonably priced.</t>
+  </si>
+  <si>
+    <t>This Best Western is rated Number One in Trip Advisor for the Glendora area, and I can see why.  It is new, modern, and also reasonably priced.  The lobby is gorgeous with a grand piano that plays itself.  We had a King Suite with a refrigerator, microwave, and coffee maker.  Also included was a full breakfast with scrambled eggs, bacon, sausage, country potatoes, toast, yogurt, fruit, waffles, juice and coffee.  It was quiet, and the service was great!  The front desk recommended the Peppertree Cafe that was right down the street, and we had a fabulous prime rib dinner, with a baked potato with all of the fixings, with sautéed vegetables, warm homemade french bread, with my favorite ice cream, chocolate chip mint, in front of a roaring fireplace.  I would highly recommend this Best Western that was the best!MoreShow less</t>
+  </si>
+  <si>
+    <t>This Best Western is rated Number One in Trip Advisor for the Glendora area, and I can see why.  It is new, modern, and also reasonably priced.  The lobby is gorgeous with a grand piano that plays itself.  We had a King Suite with a refrigerator, microwave, and coffee maker.  Also included was a full breakfast with scrambled eggs, bacon, sausage, country potatoes, toast, yogurt, fruit, waffles, juice and coffee.  It was quiet, and the service was great!  The front desk recommended the Peppertree Cafe that was right down the street, and we had a fabulous prime rib dinner, with a baked potato with all of the fixings, with sautéed vegetables, warm homemade french bread, with my favorite ice cream, chocolate chip mint, in front of a roaring fireplace.  I would highly recommend this Best Western that was the best!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r448255572-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>448255572</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>My Home Town</t>
+  </si>
+  <si>
+    <t>This Best Western may not be the biggest in the chain but they have just as big service and quality as any other. The staff is caring and the rooms are very comfortable.  It is always convenient to have breakfast option available and they really put effort into their presentation.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r437384864-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>437384864</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Best Best Western We've stayed in</t>
+  </si>
+  <si>
+    <t>We usually stay in higher end hotels but there aren't any in Glendora.  We have stayed here a number of times to visit our son who goes to APU.  It has been the best hotel and best location for this purpose.  They are always nice and the hotel is clean.  It is easy to find and it is quite comfortable.    I would recommend this to anyone staying in Glendora and especially for parents visiting their children at school</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r429563112-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>429563112</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>This is a good Best Western Hotel</t>
+  </si>
+  <si>
+    <t>Found the staff very friendly and helpful. The hotel room and grounds were neat and clean. Only at the hotel one night, but we would stay there again if we are in the area. We did find the bed a little to hard for out taste.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r427967726-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>427967726</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Return to where I grew up.</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this hotel this last weekend and we were very impressed with the service, the staff, how clean the hotel was and how comfortable the beds were. We enjoyed a great breakfast and felt that this is a safe and secure hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r413529525-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>413529525</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel and friendly staff</t>
+  </si>
+  <si>
+    <t>Nice clean hotel and quite.  I was here for week and overall the hotel worked out perfectly.  Good location on RT 66. My online reservation was all screwed up and George at the front desk got it all corrected.  One strange thing is the room rate was different every night.  I know the rates can fluctuate based on the particular night but every night a different rate????  Hot breakfast was nice but absolutely the same everyday!  Need to change things up!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r412108893-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>412108893</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Style and comfort</t>
+  </si>
+  <si>
+    <t>We were just there one night. Would have liked more. Room was tastefully decorated, the bed was very comfortable, and the TV was a good quality. Since I always forget my shower cap, I would  have liked one...The breakfast was a wonderful selection of good quality food. Since this was a 'Plus' motel, I was hoping for biscuits and gravy, and they did not disappoint. I wish we had another trip planned to Glendora, but it will be a long while. I would definitely gravitate to another BW Plus, though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r410317490-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>410317490</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Very nice facility</t>
+  </si>
+  <si>
+    <t>Very nice rooms with comfortable bed. Usual free hotel breakfast fare. On Friday evening when we arrived there was chilled red or white wine and warm chocolate chip cookies in the lobby.We do not use pool or workout facilities, therefore did not miss not having them. Special note, one day I forgot my I-pod and left it charging in room. No problem still there when I returned.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r390427030-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>390427030</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Two night stay</t>
+  </si>
+  <si>
+    <t>Hotel was very clean, rooms were spacious.  Internet connection just plain terrible.  I was on 2nd floor.  At 5:00 PM connection was poor.  I was told it had to be my device...which would have meant all three of them (cell phone, kindle, laptop).  At 5:00 AM connection was also poor, suddenly at 6:00 AM (on the dot) internet connection was fine, which told me it had been turned off!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r389621833-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>389621833</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel for the money</t>
+  </si>
+  <si>
+    <t>The staff were pleasant and the room was clean and everything worked, however, the beds and pillows were both extra firm to the point of being uncomfortable.  Since the hotel was very convenient to our family gathering and the rates were reasonable, it was acceptable.  The breakfast was about what you'd expect from a fast food restaurant.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r386624375-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>386624375</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Wrong time to visit</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was friendly and accommodating.  The hotel is centrally located, right on Route 66, and within walking distance of many restaurants.  However, there was a huge fire in the hills above us and the hotel was full of evacuee families and fire fighters.  This is when the flimsy walls of hotels just don't work.  Again this was an extenuating circumstance so I shouldn't be complaining about noise.  Lucky to have a room I guess, but next time I would certainly pick my dates better and get the top floor.  Also, BW breakfasts are less than appealing and pretty much the same at every one.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r375952258-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>375952258</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Quick business trip</t>
+  </si>
+  <si>
+    <t>Very clean and very nice rooms, excellent full breakfast and good lighted parking area.  The rooms are very modern with walls thick enough not to hear your neighbors.  The bed was very comfortable and the pillows were firm.  The towels are large, soft and the shower had good water pressure.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r365847432-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>365847432</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>A quick one night stay is fine, any longer...questionable.</t>
+  </si>
+  <si>
+    <t>Overall, the stay was average-sh. Room 216 was fine in terms of cleanliness. Expect for the motorcycle/mechanic shop next door, which was very loud. Check--in was fine, but overall the front desk staff was less than attentive; every time I was at the front desk ( had to call them from the back office to come out. Breakfast was standard. The price was a little high for what I feel like I got. That being said, parking was free, internet was included, and it was for one night. It was fine.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r365298388-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>365298388</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Hotel rooms and bathrooms are clean.  We feel comfortable staying here as a family with our toddler every time we are in the area.  Pricing is fair especially with a AAA discount.  Free breakfast is questionable, but they do have cereal and yogurt options.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r357730741-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>357730741</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Hotel Stay</t>
+  </si>
+  <si>
+    <t>This is a good hotel at a reasonable price.  The check in clerk was very slow and the $100.00 no smoking policy deposit was unacceptable.  I would have to say that this hotel is at the lower end of Best Western quality.  The front desk was helpful and cordial, the rest of the staff seemed a little stressed</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r350722229-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>350722229</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Good hotel during a sad time.</t>
+  </si>
+  <si>
+    <t>We booked 2 rooms for ourself &amp; my daughters family to stay overnight prior to attending my nephew's Mitchell Dunajski's early morning funneral. This hotel is clean and comfortable as we have experanced with all the Best Western's we have stayed at but it is not one of their premire hotels such as Casa Grande BW in Arroyo Grande or the BW in San Simeion CA. The only thing was the scammbled eggs &amp; Bacon was luke warm. However overall this is a good place to stay in Glendora CA</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r345316755-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>345316755</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Below standard for a Best Western Plus. Serious problem with temperature of food for breakfast and a very uncomfortable bed. These two issues totally out weighed any of the benefits of a typical Best Western Plus. Hopefully this was just an isolated case. I checked out a day early rather than trying to sleep on an  useless mattress. Received  no refund.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r339519265-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>339519265</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>The bed sounded like it was full of noisy paper. Check in and check out took 20 minutes each time.  No express checkout. I have had much better experiences at other hotels.  Will not stay here again. The manager yelled at me. The breakfast area was packed too tightly with furniture that people could not navigate around the empty tables. Out of orange juice and workers did not seem to care.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r336829077-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>336829077</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Hotel</t>
+  </si>
+  <si>
+    <t>Plenty of room for 4 with clean bathroom. Walls are a little thin because coughing guy next door woke everybody up in the middle of the night. Chlorine in hot tub was overwhelming when the whirlpool was on, so we just turned it off.  Overall nice room and good breakfast spread.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r329828978-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>329828978</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Quality declined since last visit</t>
+  </si>
+  <si>
+    <t>On my last visit I commented on the rock hard beds and motion sensor detector lights in the bathroom that turned on when I went in the middle of the night. Well those have not changed.  Add to that poor to non-existent WiFi reception and terrible breakfast. Undrinkable coffee and juice, meager selections.  It looked like the overworked front office receptionist was also in charge of keeping breakfast stocked. The final straw was when I opened the mini fridge there was an exploded Coca-Cola mess in there. Sorry but I will be staying elsewhere from now on.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r321060984-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>321060984</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Great bang for the buck. Very nice and clean hotel, friendly/helpful staff, and breakfast included, all for a reasonable price. It's a very convenient location if visiting Azusa Pacific University. I will definitely stay here again if we're in the area.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r314547210-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>314547210</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Nice enough but no internet!!</t>
+  </si>
+  <si>
+    <t>This hotel is nice enough - standard BW stuff. But it advertises free WiFi. Be forewarned. The internet in the rooms is so weak, you get nearly no connection. My idea of free in-room internet is not standing in the lobby. So if connectivity is important to you, find somewhere else.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r308828075-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>308828075</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>APU Orientation Stay</t>
+  </si>
+  <si>
+    <t>The hotel itself is clean and nice, but the hotel staff are not friendly. Upon check-in the behind the counter lady did not smile or welcome us to the hotel. It almost seemed as though we were bothering her.  I asked if there was an APU rate and I could not receive a direct answer from her or the gentleman who checked me out. They were hesitant to give me concrete amounts. Next time I will stay somewhere else where APU is valued and they do give excellent rates.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r291645723-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>291645723</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>BROWN STAINS ON SHEETS</t>
+  </si>
+  <si>
+    <t>This hotel was disgusting. I arrived at 2 am the night before and went straight to bed. When I woke up the next morning, I found brown stains all over the bed. Honestly, brown stains can only be 1 of 2 or 3 things. Honestly, it looked like dry blood. I flipped out &amp; was completely disgusted. If I would have saw that the night before, I would have NOT slept there. When I called the front desk, the lady was SO rude. I could not believe it. 1) I cannot believe housekeeping would ever think to keep those sheets 2) see those brown stains and think, "oh let's put this on a bed." At this point, it only makes me question EVERY housekeeping protocol they have. I bet they never wash the comforter, who knows what they do with the carpet. I made sure to walk around in my flip flops the entire time. The bed was also so hard that I felt like I was camping outside on the ground. The pillows were also miniature sized. You had to put two of their "normal" pillows together to make a standard pillow size. It was ridiculous. It was just disgusting and I could not believe it. I will stay an hour away just not to stay there ever again and warn others before they do.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This hotel was disgusting. I arrived at 2 am the night before and went straight to bed. When I woke up the next morning, I found brown stains all over the bed. Honestly, brown stains can only be 1 of 2 or 3 things. Honestly, it looked like dry blood. I flipped out &amp; was completely disgusted. If I would have saw that the night before, I would have NOT slept there. When I called the front desk, the lady was SO rude. I could not believe it. 1) I cannot believe housekeeping would ever think to keep those sheets 2) see those brown stains and think, "oh let's put this on a bed." At this point, it only makes me question EVERY housekeeping protocol they have. I bet they never wash the comforter, who knows what they do with the carpet. I made sure to walk around in my flip flops the entire time. The bed was also so hard that I felt like I was camping outside on the ground. The pillows were also miniature sized. You had to put two of their "normal" pillows together to make a standard pillow size. It was ridiculous. It was just disgusting and I could not believe it. I will stay an hour away just not to stay there ever again and warn others before they do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r289718102-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>289718102</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This Best Western is located on Rt 66 in Glendora.  It was easy to find.  Clean parking lot, front entrance and lkobby.  The room was very spacious. The beds were happily very comfortable. And the  free breakfast was a nice touch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r287082773-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>287082773</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>I'd recommend this hotel, I know a lot of people like very soft beds. I do not. But that will not prevent me from going to a Best Western again. I guess I can ask for a harder bed next time. The breakfast was not very great. They didn't have bacon, and the powered eggs seemed too powdery!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r278802488-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>278802488</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Great hotel - check-in sometimes spotty</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 4 or 5 times in the last 12 months (2014-2015).  We always get a room with a King-size bed.  The bed is comfortable and the room spacious - the views from the rooms are nothing spectacular, but they are quiet and clean.  Free wireless and refrigerator.  I have no complaints except for the check-in process.  The issue here is less about the front desk staff but more about the number of front desk staff (i.e. 1).  The last two times I stayed here, I had pre-paid so only needed to show my ID, credit card and get my room key.  We had to wait for 5-10 minutes though while the lady at the front desk took a phone reservation.  It seemed in each case that there was only one lady working there and so no-one to help us while she finished the call with another client.  Maybe this is how they keep the costs low.  If you can live with waiting to check-in then this hotel is fine and the best place to stay if you are planning to explore Mount Baldy.  Please note that there is not much in this area by way of food options - especially if you prefer something other than fast food.  We keep going to Clubhouse 66 (about a mile away).  It's OK, but nothing special.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 4 or 5 times in the last 12 months (2014-2015).  We always get a room with a King-size bed.  The bed is comfortable and the room spacious - the views from the rooms are nothing spectacular, but they are quiet and clean.  Free wireless and refrigerator.  I have no complaints except for the check-in process.  The issue here is less about the front desk staff but more about the number of front desk staff (i.e. 1).  The last two times I stayed here, I had pre-paid so only needed to show my ID, credit card and get my room key.  We had to wait for 5-10 minutes though while the lady at the front desk took a phone reservation.  It seemed in each case that there was only one lady working there and so no-one to help us while she finished the call with another client.  Maybe this is how they keep the costs low.  If you can live with waiting to check-in then this hotel is fine and the best place to stay if you are planning to explore Mount Baldy.  Please note that there is not much in this area by way of food options - especially if you prefer something other than fast food.  We keep going to Clubhouse 66 (about a mile away).  It's OK, but nothing special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r278906390-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>278906390</t>
+  </si>
+  <si>
+    <t>Good but not as good as it was</t>
+  </si>
+  <si>
+    <t>I was disappointed I was placed in an ADA room. I have stayed in this hotel over a year.   I reserved a King room more than a month ahead and when I checked in I was told that I got an ADA room.  There was no counter space in the bathroom.  Did not like the shower.  The room was very warm when I walked in but with the help of housekeeping, I was able to control the temperature of the room.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r274942975-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>274942975</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Best Western in Glendora</t>
+  </si>
+  <si>
+    <t>We stayed in Glendor while driving from Grand Canyon towards LA. The idea was to stay a bit out of town and then drive to LA/Universal next morning. Overall very good facility, not too far from LA/Universal. Good décor and they do provide breakfast, although the variety could be better</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r271045784-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>271045784</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Nice Motel, Lousy coffee</t>
+  </si>
+  <si>
+    <t>The coffee served for the included breakfast was TERRIBLE!! Because of the lousy coffee I did not bother with the included breakfast.  I have stay at the Best Western Motel in San Dimas, CA numerous times.  The quality of the included breakfast is 1000% better than the Glendora Route 66 Best Western.  For future stays I will be using the San Dimas location.  Although the San Dimas location is an older property and not as conveniently located for my purposes I believe it is a better value because of the quality coffee/breakfast available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r270075842-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>270075842</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Theft of money while staying there</t>
+  </si>
+  <si>
+    <t>We stayed at the Best Western Route 66 Glendora Inn from April 11 - 13.  Upon leaving we had accidently left a purse in the nightstand drawer and did not realize it until we were over 300 miles away.  We immediately called the hotel and they said that an employee had turned in the purse to the front desk.  When we arrived back at the hotel and checked the purse we found that an envelope with $440 was missing.  The desk clerk called the owner/manager and informed her of this and the owner/manager said to file a police report.  No apologies were given and a general lack of concern by the owner was the impression we received.  We filed a police report with the Glendora Police Dept, and after 2 weeks they said the owner said that since there were no cameras in the room it was impossible to determine who stole the money.  ONE OF THE EMPLOYEES STOLE THE MONEY since they found the purse locked in the room, turned it in to the front desk and locked it in the safe.  Upon returning the purse to us we found the money to be missing.  The worst experience we have every had while travelling, with a lack of caring and no concern about doing the right thing to rectify the theft.  Needless to say we will never stay at the Best Western Route 66 Glendora Inn again and will...We stayed at the Best Western Route 66 Glendora Inn from April 11 - 13.  Upon leaving we had accidently left a purse in the nightstand drawer and did not realize it until we were over 300 miles away.  We immediately called the hotel and they said that an employee had turned in the purse to the front desk.  When we arrived back at the hotel and checked the purse we found that an envelope with $440 was missing.  The desk clerk called the owner/manager and informed her of this and the owner/manager said to file a police report.  No apologies were given and a general lack of concern by the owner was the impression we received.  We filed a police report with the Glendora Police Dept, and after 2 weeks they said the owner said that since there were no cameras in the room it was impossible to determine who stole the money.  ONE OF THE EMPLOYEES STOLE THE MONEY since they found the purse locked in the room, turned it in to the front desk and locked it in the safe.  Upon returning the purse to us we found the money to be missing.  The worst experience we have every had while travelling, with a lack of caring and no concern about doing the right thing to rectify the theft.  Needless to say we will never stay at the Best Western Route 66 Glendora Inn again and will never recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Best Western Route 66 Glendora Inn from April 11 - 13.  Upon leaving we had accidently left a purse in the nightstand drawer and did not realize it until we were over 300 miles away.  We immediately called the hotel and they said that an employee had turned in the purse to the front desk.  When we arrived back at the hotel and checked the purse we found that an envelope with $440 was missing.  The desk clerk called the owner/manager and informed her of this and the owner/manager said to file a police report.  No apologies were given and a general lack of concern by the owner was the impression we received.  We filed a police report with the Glendora Police Dept, and after 2 weeks they said the owner said that since there were no cameras in the room it was impossible to determine who stole the money.  ONE OF THE EMPLOYEES STOLE THE MONEY since they found the purse locked in the room, turned it in to the front desk and locked it in the safe.  Upon returning the purse to us we found the money to be missing.  The worst experience we have every had while travelling, with a lack of caring and no concern about doing the right thing to rectify the theft.  Needless to say we will never stay at the Best Western Route 66 Glendora Inn again and will...We stayed at the Best Western Route 66 Glendora Inn from April 11 - 13.  Upon leaving we had accidently left a purse in the nightstand drawer and did not realize it until we were over 300 miles away.  We immediately called the hotel and they said that an employee had turned in the purse to the front desk.  When we arrived back at the hotel and checked the purse we found that an envelope with $440 was missing.  The desk clerk called the owner/manager and informed her of this and the owner/manager said to file a police report.  No apologies were given and a general lack of concern by the owner was the impression we received.  We filed a police report with the Glendora Police Dept, and after 2 weeks they said the owner said that since there were no cameras in the room it was impossible to determine who stole the money.  ONE OF THE EMPLOYEES STOLE THE MONEY since they found the purse locked in the room, turned it in to the front desk and locked it in the safe.  Upon returning the purse to us we found the money to be missing.  The worst experience we have every had while travelling, with a lack of caring and no concern about doing the right thing to rectify the theft.  Needless to say we will never stay at the Best Western Route 66 Glendora Inn again and will never recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r270075352-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>270075352</t>
+  </si>
+  <si>
+    <t>A pleasant surprise</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel for the last 5 years and are surprised that it hasn't showed it's age a bit. It is still well maintained and very clean, with a well trained staff.  Complementary breakfast is better than most of its kind.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r263523886-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>263523886</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Glendora Treasure</t>
+  </si>
+  <si>
+    <t>This is a pleasant place to stay. Great staff, clean hotel and clean rooms! Only the breakfast was mediocre...low standard foods, but lots of great breakfast places in the area...like Flappy Jacks and Donut Man!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r261576853-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>261576853</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>There's a wonderful surprise in Glendora</t>
+  </si>
+  <si>
+    <t>Hidden away in Glendora along the historic Route 66, is a Best Western hotel we found while on our way to Palm Springs from Sacramento.   We didn't know what to expect since we booked the room on the internet for a great price and have been disappointed many times in the past.   Not this time.  The hotel looks great from the outside, and once you enter the lobby you're greeted by a baby grand piano being played by an invisible pianist.  The staff is friendly and the chocolate chip cookies are only the beginning.  The room  is nicely decorated, a the amenities are great.  Large flat screen, coffee maker, hair dryer.  Everything you need and expect.  Free WiFi.  In the morning, you'll get a free breakfast including eggs, bacon, waffles served in a clean, nicely decorated dining room complete with large screen TV.  Once you visit, I'm sure like us, you'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hidden away in Glendora along the historic Route 66, is a Best Western hotel we found while on our way to Palm Springs from Sacramento.   We didn't know what to expect since we booked the room on the internet for a great price and have been disappointed many times in the past.   Not this time.  The hotel looks great from the outside, and once you enter the lobby you're greeted by a baby grand piano being played by an invisible pianist.  The staff is friendly and the chocolate chip cookies are only the beginning.  The room  is nicely decorated, a the amenities are great.  Large flat screen, coffee maker, hair dryer.  Everything you need and expect.  Free WiFi.  In the morning, you'll get a free breakfast including eggs, bacon, waffles served in a clean, nicely decorated dining room complete with large screen TV.  Once you visit, I'm sure like us, you'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r259697577-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>259697577</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>thank you for your business</t>
+  </si>
+  <si>
+    <t>nice quality for the money room was big but plan was not think through - you can not watch tv from the tub... the comforters and towels were old when we open the water first time it was yellow... we need to let it run for a wile and clean the tub before using it ...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r249958668-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>249958668</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>We have been staying at this hotel for three years.  This visit I witnessed a very unprofessional interaction between the hotel manager and the front desk attendant. The hotel is always very clean and centrally located. The hotel appeared to have different staff than the last time we stayed and the manager was very rude and unprofessional.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r249071094-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>249071094</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Clean, friendly and convenient</t>
+  </si>
+  <si>
+    <t>Compared to other hotels this close to Azusa Pacific University in this price range, it is very good. Very well maintained property, friendly staff, quiet and close to the campus. This was the second visit and I would gladly stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r248462281-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>248462281</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Convenient, Clean, Comfortable</t>
+  </si>
+  <si>
+    <t>Had to be in Glendora for a funeral.  We made reservations on line for two rooms.  Arrived a couple hours early and were accommodated with early check in.  Good front desk.  The rooms were spotless, well furnished and appointed.  The amenities, toiletries, and linen were a bit better than most equivalent locations.  We had other family members show up with out reservations and they were also accommodated.  I really would have liked to rate the hotel with 5 stars, but I will declare this a 4 1/2 star rating.  The included breakfast on the first day was not great, but good.  On the second day when the second party group had breakfast with my party, the breakfast, in my opinion, was a disappointment to me.  I always head for the biscuits and gravy when it is served.  Loaded up a plate.  Biscuits were room temperature and hard.  Not bad.  I will warm them up with the gravy. Wrong!  The gravy was refrigerator cold.  The kettle was not plugged in.  Note:  I was there one hour after the breakfast time supposedly started.  I feel this was probably just one of those days for the place and don't let it discourage you from staying there.  If I am back in Glendora and need a place to stay, this is where it will be.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Had to be in Glendora for a funeral.  We made reservations on line for two rooms.  Arrived a couple hours early and were accommodated with early check in.  Good front desk.  The rooms were spotless, well furnished and appointed.  The amenities, toiletries, and linen were a bit better than most equivalent locations.  We had other family members show up with out reservations and they were also accommodated.  I really would have liked to rate the hotel with 5 stars, but I will declare this a 4 1/2 star rating.  The included breakfast on the first day was not great, but good.  On the second day when the second party group had breakfast with my party, the breakfast, in my opinion, was a disappointment to me.  I always head for the biscuits and gravy when it is served.  Loaded up a plate.  Biscuits were room temperature and hard.  Not bad.  I will warm them up with the gravy. Wrong!  The gravy was refrigerator cold.  The kettle was not plugged in.  Note:  I was there one hour after the breakfast time supposedly started.  I feel this was probably just one of those days for the place and don't let it discourage you from staying there.  If I am back in Glendora and need a place to stay, this is where it will be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r240389407-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>240389407</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Highly Recommend</t>
+  </si>
+  <si>
+    <t>Staying here for a Wedding in the area, I would highly recommend this hotel.  The staff was extremely helpful, the rooms spacious, and they offer breakfast in the morning.  They have an elevator for the 2nd floor, which for us, was helpful as we had a lot of supplies to take to the wedding.  We had our choice of 3 hotels from the couples website, as it turns out, this was the best (staff, rooms, helpfulness) of the three (after talking with the other wedding party attendees)  Highly recommend!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r239373381-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>239373381</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>My High School Reunion</t>
+  </si>
+  <si>
+    <t>I grew up in this town and returned after many years to attend my Reunion.  It was a very happy trip and I was glad to have a room at this Best Western.  All the services were great and the room was clean, comfortable and well appointed. I was a bit surprised when the rate was non-negociable offering no discounts for AAA or AARP. I was told it was an independent hotel, not part of the Best Western chain and therefore the rate was firm.  Not a big deal but something a traveler might want to know...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r237851913-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>237851913</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>happy with our stay</t>
+  </si>
+  <si>
+    <t>Based on the competition in the area, I was very happy with this hotel. We were tired after a long day of traveling and the rooms were very comfortable and I slept like a rock. In the AM, I went to the gym down the hall for a little aerobic workout before showering and having breakfast. The menu was OK; I've had better and a lot worse. After we went for a walk in the neighborhood for additional exercise before getting ready for our morning apt. I'd stay there again just for the welcoming comfort at the end of a long day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r235123484-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>235123484</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night after a flight from the UK.  We wanted somewhere not too long a drive from the airport, but en route to Las Vegas which was our next stop.  It was perfect from this point of view, friendly guy on reception, nice clean room (if a little dated), big room, free wifi, breakfast was okay.  For the price paid for a one night stop this was ideal.  If we were making the same trip again would stop here again.  (Note the Tom Tom point of interest for this hotel takes you to the wrong place so just use the address).</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r234476425-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>234476425</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>I stayed one night for business. The hotel and staff were excellent, it was a great experience and the price was perfect. If you are going to need to stay in either Glendora or Azusa, I highly recommend this hotel</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r234237518-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>234237518</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>This is a great clean very well kept up hotel with a great staff. If you are looking for a hotel in the Glendora area this is the only hotel to stay at. We stay here at least 6 to 8 times a year and have never been disappointed. Whenever we stay in the area this is the place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r231991066-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>231991066</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>Arrived to a clean and quiet room.  There are train tracks directly behind the complex, but did not experience any noise issues.  Breakfast was available each day with cereal, danishes, bagels, yogurt, coffee, juice, fresh fruit, waffles, and an array of hot prepared foods.  Staff was courteous and competent.  Experienced an issue with the hot water on day of check out, but it was remedied within 15 minutes.  Would recommend and stay at this BW Plus again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r229321068-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>229321068</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Reasonably priced and clean</t>
+  </si>
+  <si>
+    <t>This is really the only hotel in Glendora worth staying at.  The price was reasonable and the staff helpful.  The room was clean.The continental breakfast is mainly muffins and cereal...but the room had a refrigerator and microwave so you can bring your own food.It was very quiet.  There is a small pool and hot tub outside but we did not use it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r227832954-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>227832954</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Nice clean hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very nice and quiet.  It is on Route 66, a little off the freeway, but was in a quiet neighborhood.  If you are looking for a hotel located in a quiet location, this one is very nice.   Our accommodations were clean and well cared for.  The room was really large.   The pillows were not the most comfortable but this was our only complaint.  The breakfast was decent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r226198311-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>226198311</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Best Place Near APU</t>
+  </si>
+  <si>
+    <t>We have stayed at many places while taking our kids to APU and this is the best choice for the price. The beds are good and the rooms are nice, but the best part is that the hotel is 10 min. from campus and just down route 66, so you do not have to deal with freeway traffic!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r224963733-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>224963733</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>The BEST Best Western we have ever stayed in.</t>
+  </si>
+  <si>
+    <t>The BEST Best Western we have ever stayed in.  Wonderful location.  Very nicely decorated. Welcoming protocol with complimentary glass of wine and courteous and efficient staff.  Clean room.  Sanitized remote and complimentary slippers.  Several breakfast choices.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r223544602-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>223544602</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Great Experience at Best Western, Glendora, CA</t>
+  </si>
+  <si>
+    <t>We have no complaints and can only praise our experience with the staff and accomondations at the Glendora, CA Route 66 Best Western. It was nice. It was clean. The staff were friendly and thorough. Thanks!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r219728196-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>219728196</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Great Night Sleep</t>
+  </si>
+  <si>
+    <t>We had two great nights here, though we do like firm mattresses. The hotel is beautiful outside and the lobby and rooms were very welcoming and nicely decorated. Either side of the property is not the best (one side looked like RV repair but we never heard a noise from the place. The other side was trailers maybe but with the hotel wall we really didn't notice it.  The hotel seemed liked a beautiful oasis. We would have enjoyed the welcoming cookies but they were all gone and I guess the quota had been made for the night since I joked we would like some.  We didn't use the pool but we did go out to check it out and the pool area was nice.  We did have trouble with the TV but management was right on it.  The breakfast area was big but not as well decorated as the rest of the hotel.  Breakfast was pretty good with a few hot items and the usual cold items.  Surprising no bananas. Their was a mistake on our billing to our credit card I noticed when I got home but management correctly it the next day. We would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We had two great nights here, though we do like firm mattresses. The hotel is beautiful outside and the lobby and rooms were very welcoming and nicely decorated. Either side of the property is not the best (one side looked like RV repair but we never heard a noise from the place. The other side was trailers maybe but with the hotel wall we really didn't notice it.  The hotel seemed liked a beautiful oasis. We would have enjoyed the welcoming cookies but they were all gone and I guess the quota had been made for the night since I joked we would like some.  We didn't use the pool but we did go out to check it out and the pool area was nice.  We did have trouble with the TV but management was right on it.  The breakfast area was big but not as well decorated as the rest of the hotel.  Breakfast was pretty good with a few hot items and the usual cold items.  Surprising no bananas. Their was a mistake on our billing to our credit card I noticed when I got home but management correctly it the next day. We would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r219181887-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>219181887</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Overall a very good experience.</t>
+  </si>
+  <si>
+    <t>The room was nice and service was great. Free breakfast was ok...nothing special but it was free. The only issues I found was some mold on wall in bathroom and had trouble with cable service on TV. Also lobby and hallway of hotel was very warm! Do they not beloebe in turning on the air?  It was 95 degrees that day with 48% humidity outside and it felt the same when you entered the hotel. Other than these little issues,had a nice stay. Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r216855034-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>216855034</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Disappointing value</t>
+  </si>
+  <si>
+    <t>The hotel property and our room were OK and clean.  However, the breakfast was about the worst we've had anywhere in terms of food quality.  The air conditioning unit was much too noisy.  In-room internet was so slow, it was virtually unusable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r209224748-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>209224748</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Very clean and nice</t>
+  </si>
+  <si>
+    <t>The Best Western in Glendora CA is just as clean and nice as it was when it first opened.  We wouldn't stay anywhere else.  The staff is professional and helpful, and it's in a great location.  I am very unhappy that I have to stretch this review to a minimum of 200 characters, as I have nothing else to say.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r208791070-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>208791070</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Attractive, comfortable hotel with some nice little surprises</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was fairly close to a business we wished to visit.  It is an attractive, very well maintained and comfortable facility that was in such great condition.  I asked if it were newly built and  I learned that it is seven years old.  Our room was very clean and nicely decorated, and comfortable.While we did not get into the water, we did enjoy relaxing around the attractive pool/spa.  It was comfortable and the landscaping was very attractive.  I was delighted to see, as we were entering the pool area a very large flock of bright green parrot like birds taking flight over the property.I enjoyed finding heavy ceramic coffee cups and nice glass drinking glasses in our room and a good flat screened TV with many channels.  The ice machine that produced plenty of ice very quickly.   The landscaping around the building was, as at the pool, exceptionally well designed and attractive.  Enjoyed the art piece of a grand piano displayed over the entrance complete with money in the tip jar that i felt reflected attention to detail in this establishmentThe few staff we encountered were both efficient and pleasant.The breakfast was fairly standard, but of good quality with abundant choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was fairly close to a business we wished to visit.  It is an attractive, very well maintained and comfortable facility that was in such great condition.  I asked if it were newly built and  I learned that it is seven years old.  Our room was very clean and nicely decorated, and comfortable.While we did not get into the water, we did enjoy relaxing around the attractive pool/spa.  It was comfortable and the landscaping was very attractive.  I was delighted to see, as we were entering the pool area a very large flock of bright green parrot like birds taking flight over the property.I enjoyed finding heavy ceramic coffee cups and nice glass drinking glasses in our room and a good flat screened TV with many channels.  The ice machine that produced plenty of ice very quickly.   The landscaping around the building was, as at the pool, exceptionally well designed and attractive.  Enjoyed the art piece of a grand piano displayed over the entrance complete with money in the tip jar that i felt reflected attention to detail in this establishmentThe few staff we encountered were both efficient and pleasant.The breakfast was fairly standard, but of good quality with abundant choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r203259824-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>203259824</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>More upscale but most Best Western Plus's are</t>
+  </si>
+  <si>
+    <t>I would stay here again. Staff is wonderful I had everything I needed. Room was comfortable. Since this was more a business trip but I brought the family I was unable to use all of the amenities available to me.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r198758233-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>198758233</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!  Rooms are clean, beds are comfortable.  Staff is very helpful. Convenient location. We have stayed here for the last two years on average once a month and the service is always excellent! The onsite washer and dryer is a plus as is the hot complimentary breakfast! I would recommend this hotel!!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r198132551-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>198132551</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>In town for a training and stayed at this hotel. It was a very pleasant experience. The staff was very friendly and helpful. I would recommend this hotel for its cleanliness and curteous employees. This is my second time staying at this hotel and if there is another training I will do the same. It is also centrally located near places to eat.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r196081750-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>196081750</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great People</t>
+  </si>
+  <si>
+    <t>I often stay here because of the friendly staff, quite neighborhood, and excellent facilities.  This hotel provides a very consistent experience I have stayed here approximately 40 nights over the last 3 year period.  It is hard to find a quite hotel in an urban environment, but this hotel is in the quietest setting of any of the other hotels I have stayed at in this area.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r190233643-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>190233643</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Rose Bowl Parade</t>
+  </si>
+  <si>
+    <t>Great hotel for value. Staff very professional and helpful. Hotel was full for the Rose Bowl Parade. My first time to this area and hotel. I didn't expect much but pleasantly surprised with hotel, service and value.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r189943079-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>189943079</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Trip to Pasadena</t>
+  </si>
+  <si>
+    <t>We stayed there to see the Rose Parade, we stayed one night, the place is small and I was not to sure of the location or look of the Hotel at first.  Once we got into the room I was happy.  It was clean, staff was friendly and it was a quick 20 min to Pasadena.  PLUS, west of the hotel is The Hat restaurant, great convenient place to eat.  Would recommend to you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r189957451-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>189957451</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Our Most Refreshing Stay!</t>
+  </si>
+  <si>
+    <t>If you are ever in the Glendora/San Dimas/Azusa area of Southern California and need a place to rest, relax, and refresh yourself, then Best Western PLUS Route 66 Glendora Inn is just what you need!!!  The property, facilities, and immenities are superb!  The staff are unbelievably nice and accommodating!  The rooms are so comfortable and roomy! Our son goes to college about a mile down the road and we stay here without hesitation every time we're in town to visit!  Please check them out!  You won't be disappointed!!!  [:-)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r187758261-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>187758261</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Stayed during Christmas time and the entry was beautiful and inviting.  My stays at Route 66 Best Western is always enjoyable.  Always stay here when I come to visit family and friends.  The staff is always extremely friendly and beds are very comfortable.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r181895639-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>181895639</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Overall the Best Western Plus-Route 66 hotel was a great place to stay. I stayed there for 5 nights and I felt safe. The room was clean and offered a large bathroom. The staff was helpful. I also used the laundry facility which offered one washer and dryer,  that area was clean. I would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r181742248-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>181742248</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>I stayed here one night for business. The hotel is decent and clean. The girls at front desk were friendly. The free breakfast is ok, not bad for free. The location is ok, some decent places to eat nearby. Downtown Glendora is about 1.5 miles away, cute little street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r176814864-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>176814864</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Best place in Glendora/Azusa - APU Parents</t>
+  </si>
+  <si>
+    <t>So blessed we found this place (right on Rt 66), stayed here for over a week while we settled our daughter in at APU.  It is about a 5min drive (closest hotel to APU) and felt at home here.   Mini Fridge was a life saver....there is a microwave also, but didn't have a need to use it.  Rooms was spacious and well appointed.  Beds are firm, but way better than saggy or too soft. Water pressure was great and hot water was always there when you turned on the faucet :D  Loved the glass of wine they offer at the front dest in the evenings...always helped us relax after a long day.   Breakfast was good and plentiful.  Staff:  friendly, helpful and a joy!  That goes for the front desk and the housekeeping staff.Unfortunately, we never did get to take a swim in the pool, but it looked inviting.There isn't a restaurant within walking distance, but a short drive away they are plentiful.  Our favorite is in downtown Glendora (5 minutes away) Frisella's - you will also find Classic Coffee in downtown Glendora... if you like coffee this is the place!We will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>So blessed we found this place (right on Rt 66), stayed here for over a week while we settled our daughter in at APU.  It is about a 5min drive (closest hotel to APU) and felt at home here.   Mini Fridge was a life saver....there is a microwave also, but didn't have a need to use it.  Rooms was spacious and well appointed.  Beds are firm, but way better than saggy or too soft. Water pressure was great and hot water was always there when you turned on the faucet :D  Loved the glass of wine they offer at the front dest in the evenings...always helped us relax after a long day.   Breakfast was good and plentiful.  Staff:  friendly, helpful and a joy!  That goes for the front desk and the housekeeping staff.Unfortunately, we never did get to take a swim in the pool, but it looked inviting.There isn't a restaurant within walking distance, but a short drive away they are plentiful.  Our favorite is in downtown Glendora (5 minutes away) Frisella's - you will also find Classic Coffee in downtown Glendora... if you like coffee this is the place!We will definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r176387568-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>176387568</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel Lobby</t>
+  </si>
+  <si>
+    <t>As you first step into this hotel it seems very rich and extravagant. Huge lavish waiting room with TALL ceilings and a player piano above the door. overall this feels like a hotel we could not afford, so to pay just over a hundred is quite a value. The rooms do not disappoint either. Super nice upscale features. tall ceilings, comfortable beds. We were just stopping for a nights sleep and didn't take advantage of the pool or room service. But the room service menu did look very appetizing and reasonably priced. Overall would gladly stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r173933657-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>173933657</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>A very good hotel for the location, well appointed, nice swimming pool and jacuzzi. Helpful staff, free wifi and parking. Wifi signal was a little weak in my room, but we got it to work. Rooms are very spacious. Free breakfast and a good price. Good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r168940166-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>168940166</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights at the Best Western Plus in Glendora, CA. Upon turning into the parking lot, we could tell that this hotel is very well cared for. It was beautiful both inside and out, and from the desk clerks to the maids, everyone was friendly and helpful. The only thing that we were unhappy about is the bed; we did not sleep well in it and woke up sore, but we tend to occasionally have this problem on beds we're not used to so it could have been us and not the bed that was the issue. Overall this hotel is a solid 10, and should circumstances bring us back in that area, we would stay there again without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights at the Best Western Plus in Glendora, CA. Upon turning into the parking lot, we could tell that this hotel is very well cared for. It was beautiful both inside and out, and from the desk clerks to the maids, everyone was friendly and helpful. The only thing that we were unhappy about is the bed; we did not sleep well in it and woke up sore, but we tend to occasionally have this problem on beds we're not used to so it could have been us and not the bed that was the issue. Overall this hotel is a solid 10, and should circumstances bring us back in that area, we would stay there again without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r165455341-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>165455341</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Want to enjoy your visit to a motel stay somewhere else</t>
+  </si>
+  <si>
+    <t>The owners of this motel appear to not understand that it is their customers who pay their bills and provide paychecks to their employees.1. Burned out light bulbs in the room.2. Refrigerator not working.3. A full "Free" breakfast offering not even suited to a homeless person than to an experienced traveller (too bad I didn't take a picture of what they called a full breakfast offering). So bad I went out to eat breakfast the three days I had to stay there. 4. A requested wake up call that I made and was assured it was in the system that the desk employee forgot to enter because "I was busy."5. The smallest bar of bath soap I've ever gotten in any hotel anywhere.6. No sense in complaining to the desk staff because they look at you clueless as what to do.The fault was entirely mine for staying at this Best Western because I thought I had made my reservation with another nearby Best Western where I never had a problem with ANYTHING all the many times I stayed there. I first went to that motel and they alerted me to my mistake but couldn't switch the reservation.My best advise. Go to that great Best Western near LaVerne, CA.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>The owners of this motel appear to not understand that it is their customers who pay their bills and provide paychecks to their employees.1. Burned out light bulbs in the room.2. Refrigerator not working.3. A full "Free" breakfast offering not even suited to a homeless person than to an experienced traveller (too bad I didn't take a picture of what they called a full breakfast offering). So bad I went out to eat breakfast the three days I had to stay there. 4. A requested wake up call that I made and was assured it was in the system that the desk employee forgot to enter because "I was busy."5. The smallest bar of bath soap I've ever gotten in any hotel anywhere.6. No sense in complaining to the desk staff because they look at you clueless as what to do.The fault was entirely mine for staying at this Best Western because I thought I had made my reservation with another nearby Best Western where I never had a problem with ANYTHING all the many times I stayed there. I first went to that motel and they alerted me to my mistake but couldn't switch the reservation.My best advise. Go to that great Best Western near LaVerne, CA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r158667699-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>158667699</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Best decorated clean experience</t>
+  </si>
+  <si>
+    <t>The hotel presentation from outside appearance to inside decoration was wonderful. We were able to check-in early as we were in this area to cycle. Staff very friendly. Laundry facilities a bonus and good quality, efficient. Quiet location for good sleep, bed good, Internet good. Check in and check out good and efficient but check in staff person made you feel like you were going to damage something while you stayed there. It felt like a new hotel but we were told it was because they kept it clean. Lobby area beautiful. Room spacious. Breakfast good, waffles. Good choice of food, no bananas. Wine hospitality served although I had to ask first and then I didn't feel that was right. Loved this place. Would recommend to others. Good value. Great location for our cycling up Mt Baldy, check out scenery on website: cyclingwest.com. Close to eating facilities. Great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The hotel presentation from outside appearance to inside decoration was wonderful. We were able to check-in early as we were in this area to cycle. Staff very friendly. Laundry facilities a bonus and good quality, efficient. Quiet location for good sleep, bed good, Internet good. Check in and check out good and efficient but check in staff person made you feel like you were going to damage something while you stayed there. It felt like a new hotel but we were told it was because they kept it clean. Lobby area beautiful. Room spacious. Breakfast good, waffles. Good choice of food, no bananas. Wine hospitality served although I had to ask first and then I didn't feel that was right. Loved this place. Would recommend to others. Good value. Great location for our cycling up Mt Baldy, check out scenery on website: cyclingwest.com. Close to eating facilities. Great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r147373830-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>147373830</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r146656941-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>146656941</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>The new pillows finally earned you the fifth star</t>
+  </si>
+  <si>
+    <t>I have written previously how much we enjoy the facility when visiting family living near by. Well, my only "gripe" back then was the "decorator" pillows posing as regular sleeping pillows, when in fact they were totally impossible to sleep on. This forced us to bring pillows from home so we could stay there. Well, all has been fixed. They must have seen our comments because the have purchased and installed the best pillows ever!  We took our pillows from home back out to the car after trying their new pillows. Happy dreams! All is well the the Glendora Best Western.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r141341968-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>141341968</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Our house flooded.</t>
+  </si>
+  <si>
+    <t>We had a major flood within our home in Glendora...our insurance put us up in this place and it was soooooo clean I did not want to leave. Super modern...breakfast room in lobby and just an overall nice place. NO BED BUGS HERE!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r139258037-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>139258037</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>A good, quiet Hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is in an excellent location and because it is over a mile from the nearest Freeway, is quitel at night, allowing for an excellent nights sleep.  I have spent 8 nights on business using this Hotel in the past three months and have had a quality experience each time.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r129430217-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>129430217</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Good hotel with friendly staff.</t>
+  </si>
+  <si>
+    <t>Second stay here and this was better than the first. A friendly welcome and a good size room with king size bed, sofa and desk. Big bathroom with full size tub. The room was on the ground floor, facing the carpark. This turned out to be a bonus as it was was quiet, with very little traffic noise.Breakfast was included and although the hot food wasn't all that inviting, there was plenty of other choices, including cereals,pastries and toast. Plastic cutlery and foam cups detract a bit, but I suppose it  saves on labour costsThe hotel is walking distance to a shopping centre - although it seems noone walks in LA !! Turn left and walk a couple of blocks to find a couple of  cheap restaurants with very good food.Free WI FI is very good and there is also a computer in the foyer for guest use.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Second stay here and this was better than the first. A friendly welcome and a good size room with king size bed, sofa and desk. Big bathroom with full size tub. The room was on the ground floor, facing the carpark. This turned out to be a bonus as it was was quiet, with very little traffic noise.Breakfast was included and although the hot food wasn't all that inviting, there was plenty of other choices, including cereals,pastries and toast. Plastic cutlery and foam cups detract a bit, but I suppose it  saves on labour costsThe hotel is walking distance to a shopping centre - although it seems noone walks in LA !! Turn left and walk a couple of blocks to find a couple of  cheap restaurants with very good food.Free WI FI is very good and there is also a computer in the foyer for guest use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r126648310-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>126648310</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>Basic accommodations</t>
+  </si>
+  <si>
+    <t>Recently renovated, but found rooms near the elevator noisy  and walls a bit too thin.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r114368485-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>114368485</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Worst Treatment of a Customer Possible</t>
+  </si>
+  <si>
+    <t>My daughter and her husband of 45 minutes, returned to the hotel for their wedding night and were asked to leave because their room smelled of smoke. Their cloths smelled because earlier they had smoked outside. After the wedding they returned, exhausted, and were told they could not get back in the room until a cleaning fee had been applied. They were kicked out a a room we had paid for for two nights, we were charged a cleaning fee, and there is no one in authority on the premises that can address the issue. The employee at the desk is a lone worker who is unable to reach the managers who made this decision, even though they were not on site. We came in weeks early to make the reservation, had out of town guests stay at this location and were considering extending the stay. This is how they handled the problem. The cleaning staff smelled smoke and made the inference that they had been smoking in the room. I know Best Western is a franchise, but what kind of management/owner training do they provide? This will be my daughter's wedding memory rather than the ceremony and reception. This is ridiculous.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My daughter and her husband of 45 minutes, returned to the hotel for their wedding night and were asked to leave because their room smelled of smoke. Their cloths smelled because earlier they had smoked outside. After the wedding they returned, exhausted, and were told they could not get back in the room until a cleaning fee had been applied. They were kicked out a a room we had paid for for two nights, we were charged a cleaning fee, and there is no one in authority on the premises that can address the issue. The employee at the desk is a lone worker who is unable to reach the managers who made this decision, even though they were not on site. We came in weeks early to make the reservation, had out of town guests stay at this location and were considering extending the stay. This is how they handled the problem. The cleaning staff smelled smoke and made the inference that they had been smoking in the room. I know Best Western is a franchise, but what kind of management/owner training do they provide? This will be my daughter's wedding memory rather than the ceremony and reception. This is ridiculous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r90255833-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>90255833</t>
+  </si>
+  <si>
+    <t>12/19/2010</t>
+  </si>
+  <si>
+    <t>Convenient Location for Azusa Pacific &amp; Citrus College</t>
+  </si>
+  <si>
+    <t>This is a very convenient Location for Azusa Pacific &amp; Citrus College events. I stay here last year for the APU graduation and was pretty impressed with the hotel. It is new and well maintained and the staff was just great.It has a nice pool area and offers free breakfast in the morning. Also a nice little workout room.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r85874742-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>85874742</t>
+  </si>
+  <si>
+    <t>11/03/2010</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>Spent four days at this Best Western and found it to be very accommodating for our purposes and well situated for our travels since it was close to all freeways going east, west or south..  Rooms were very nice and the maid service was excellent. Breakfast was provided however the times were somewhat inconvenient. (Served between 6:00 AM and 9:00AM)  Very reasonably priced for CA.  AAA discount came as a surprise.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r25764964-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>25764964</t>
+  </si>
+  <si>
+    <t>03/07/2009</t>
+  </si>
+  <si>
+    <t>Very dissatisfied</t>
+  </si>
+  <si>
+    <t>We had our wedding reception near this Best Western and so we booked a room for ourselves and my friend from out of town. My girlfriend couldn't make it and so we cancelled her room the night before.When my husband talked to the front desk guy he had said, "Don't worry, you will not be charged." This is where the problem with this place began. We took him for his word. Never used that room and were not expecting a charge for it, per what their employee said.In fact, we were charged. The manager said it was policy even if the employee said differently.This is bad business in my mind. The hotel representative gave us his word and the manager refuses to honor it.BE WARNEDMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>We had our wedding reception near this Best Western and so we booked a room for ourselves and my friend from out of town. My girlfriend couldn't make it and so we cancelled her room the night before.When my husband talked to the front desk guy he had said, "Don't worry, you will not be charged." This is where the problem with this place began. We took him for his word. Never used that room and were not expecting a charge for it, per what their employee said.In fact, we were charged. The manager said it was policy even if the employee said differently.This is bad business in my mind. The hotel representative gave us his word and the manager refuses to honor it.BE WARNEDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r23012154-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>23012154</t>
+  </si>
+  <si>
+    <t>12/26/2008</t>
+  </si>
+  <si>
+    <t>Great for business stays, super clean</t>
+  </si>
+  <si>
+    <t>We stayed here with a group of 11 for 2 nights, booking 11 rooms. It's a small hotel, but very nice for the price and location.As a group we were after a few things: clean, quiet and quick in/out. This hotel gave this. It's modern inside, feels cozy from minute 1 you enter the room, and the rooms look like they could be straight from a magazine cover of a Mariott or W hotel.for the price that we paid for it, above expectations.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r18184283-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>18184283</t>
+  </si>
+  <si>
+    <t>07/23/2008</t>
+  </si>
+  <si>
+    <t>Problems with manager</t>
+  </si>
+  <si>
+    <t>While the experience at the hotel itself was fine, the price billed differered from the price quoted on the phone.  Over a week, the difference was over $250.  When I tried to fix the problem, it took a personal visit, a phone call, and a second call from my husband (whose business regularly sends clients there) to resolve the issue.  The manager had to speak to two employees and both of us because we had, apparantly, not "confirmed" that we wanted the weekly rate instead of the daily rate.  Huh?  Since I had signed a paper agreeing to pay for the whole week (plus any extra charges) for some friends of mine, why would I want the daily rate?  She said she could not handle problems of more than $100 without the employee confirming that we had been quoted the weekly rate.  It became, essentially, the employee's word against ours, but my husband was finally able to resolve it.  It was almost the worst customer service fiasco I have experienced, second only to the hotel that turned off the water in the morning for four hours and offered $5 compensation for the showers we couldn't take.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>While the experience at the hotel itself was fine, the price billed differered from the price quoted on the phone.  Over a week, the difference was over $250.  When I tried to fix the problem, it took a personal visit, a phone call, and a second call from my husband (whose business regularly sends clients there) to resolve the issue.  The manager had to speak to two employees and both of us because we had, apparantly, not "confirmed" that we wanted the weekly rate instead of the daily rate.  Huh?  Since I had signed a paper agreeing to pay for the whole week (plus any extra charges) for some friends of mine, why would I want the daily rate?  She said she could not handle problems of more than $100 without the employee confirming that we had been quoted the weekly rate.  It became, essentially, the employee's word against ours, but my husband was finally able to resolve it.  It was almost the worst customer service fiasco I have experienced, second only to the hotel that turned off the water in the morning for four hours and offered $5 compensation for the showers we couldn't take.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r8195685-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
+  </si>
+  <si>
+    <t>8195685</t>
+  </si>
+  <si>
+    <t>07/19/2007</t>
+  </si>
+  <si>
+    <t>Great Room but small details need fixing</t>
+  </si>
+  <si>
+    <t>This hotel/motel is almost brand new. The room we stayed in had 2 queen sized beds and was large by most standards, even the bathroom was spacious.  The room was tastefully decorated in greens and browns and the bedding was sumptuous.  We stayed for 5 nights so it was nice to have a fridge and microwave in the room.  The large flat screen TV was also great. The pool area was small but well landscaped and a perfect place to hang out at the end of the day.  The hotel might want to enforce some rules on smoking and drinking out of glass bottles at the pool area. We found cigarette butts around the sauna and people were drinking wine coolers from bottles at the sauna. 
+I gave this hotel an "excellent" because it is a nice place to stay at a reasonable price. The employees were all friendly. They do need to fix some of the exercise equipment though. The elliptical machine lurches on every rotation and the weight machine has a cable hanging out that allows for the adjustment of the arm press.  It appeared that someone did not put this equipment together properly. 
+Also, please please replace the toaster in the breakfast room. Buy a sturdier model. Hopefully this has been fixed as the bread just falls to the bottom on the right hand side and a piece of the metal has shorted out the elements on...This hotel/motel is almost brand new. The room we stayed in had 2 queen sized beds and was large by most standards, even the bathroom was spacious.  The room was tastefully decorated in greens and browns and the bedding was sumptuous.  We stayed for 5 nights so it was nice to have a fridge and microwave in the room.  The large flat screen TV was also great. The pool area was small but well landscaped and a perfect place to hang out at the end of the day.  The hotel might want to enforce some rules on smoking and drinking out of glass bottles at the pool area. We found cigarette butts around the sauna and people were drinking wine coolers from bottles at the sauna. I gave this hotel an "excellent" because it is a nice place to stay at a reasonable price. The employees were all friendly. They do need to fix some of the exercise equipment though. The elliptical machine lurches on every rotation and the weight machine has a cable hanging out that allows for the adjustment of the arm press.  It appeared that someone did not put this equipment together properly. Also, please please replace the toaster in the breakfast room. Buy a sturdier model. Hopefully this has been fixed as the bread just falls to the bottom on the right hand side and a piece of the metal has shorted out the elements on the insides. Bread gets heated on only one side of the bread regardless of the setting. Minor but annoying details in this otherwise great motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>This hotel/motel is almost brand new. The room we stayed in had 2 queen sized beds and was large by most standards, even the bathroom was spacious.  The room was tastefully decorated in greens and browns and the bedding was sumptuous.  We stayed for 5 nights so it was nice to have a fridge and microwave in the room.  The large flat screen TV was also great. The pool area was small but well landscaped and a perfect place to hang out at the end of the day.  The hotel might want to enforce some rules on smoking and drinking out of glass bottles at the pool area. We found cigarette butts around the sauna and people were drinking wine coolers from bottles at the sauna. 
+I gave this hotel an "excellent" because it is a nice place to stay at a reasonable price. The employees were all friendly. They do need to fix some of the exercise equipment though. The elliptical machine lurches on every rotation and the weight machine has a cable hanging out that allows for the adjustment of the arm press.  It appeared that someone did not put this equipment together properly. 
+Also, please please replace the toaster in the breakfast room. Buy a sturdier model. Hopefully this has been fixed as the bread just falls to the bottom on the right hand side and a piece of the metal has shorted out the elements on...This hotel/motel is almost brand new. The room we stayed in had 2 queen sized beds and was large by most standards, even the bathroom was spacious.  The room was tastefully decorated in greens and browns and the bedding was sumptuous.  We stayed for 5 nights so it was nice to have a fridge and microwave in the room.  The large flat screen TV was also great. The pool area was small but well landscaped and a perfect place to hang out at the end of the day.  The hotel might want to enforce some rules on smoking and drinking out of glass bottles at the pool area. We found cigarette butts around the sauna and people were drinking wine coolers from bottles at the sauna. I gave this hotel an "excellent" because it is a nice place to stay at a reasonable price. The employees were all friendly. They do need to fix some of the exercise equipment though. The elliptical machine lurches on every rotation and the weight machine has a cable hanging out that allows for the adjustment of the arm press.  It appeared that someone did not put this equipment together properly. Also, please please replace the toaster in the breakfast room. Buy a sturdier model. Hopefully this has been fixed as the bread just falls to the bottom on the right hand side and a piece of the metal has shorted out the elements on the insides. Bread gets heated on only one side of the bread regardless of the setting. Minor but annoying details in this otherwise great motel.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2530,7139 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" t="s">
+        <v>212</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" t="s">
+        <v>228</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>223</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>241</v>
+      </c>
+      <c r="J36" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>239</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s">
+        <v>249</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>250</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>252</v>
+      </c>
+      <c r="J38" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" t="s">
+        <v>254</v>
+      </c>
+      <c r="L38" t="s">
+        <v>255</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" t="s">
+        <v>259</v>
+      </c>
+      <c r="K39" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" t="s">
+        <v>267</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>269</v>
+      </c>
+      <c r="J41" t="s">
+        <v>270</v>
+      </c>
+      <c r="K41" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" t="s">
+        <v>272</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>273</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>275</v>
+      </c>
+      <c r="J42" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" t="s">
+        <v>277</v>
+      </c>
+      <c r="L42" t="s">
+        <v>278</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>279</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" t="s">
+        <v>295</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>296</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s">
+        <v>301</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>302</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" t="s">
+        <v>306</v>
+      </c>
+      <c r="L47" t="s">
+        <v>307</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>310</v>
+      </c>
+      <c r="J48" t="s">
+        <v>311</v>
+      </c>
+      <c r="K48" t="s">
+        <v>312</v>
+      </c>
+      <c r="L48" t="s">
+        <v>313</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>314</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>316</v>
+      </c>
+      <c r="J49" t="s">
+        <v>317</v>
+      </c>
+      <c r="K49" t="s">
+        <v>318</v>
+      </c>
+      <c r="L49" t="s">
+        <v>319</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>314</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J50" t="s">
+        <v>322</v>
+      </c>
+      <c r="K50" t="s">
+        <v>323</v>
+      </c>
+      <c r="L50" t="s">
+        <v>324</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>325</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" t="s">
+        <v>329</v>
+      </c>
+      <c r="K51" t="s">
+        <v>330</v>
+      </c>
+      <c r="L51" t="s">
+        <v>331</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>325</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" t="s">
+        <v>334</v>
+      </c>
+      <c r="K52" t="s">
+        <v>335</v>
+      </c>
+      <c r="L52" t="s">
+        <v>336</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>325</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" t="s">
+        <v>340</v>
+      </c>
+      <c r="L53" t="s">
+        <v>341</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>342</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>345</v>
+      </c>
+      <c r="J54" t="s">
+        <v>339</v>
+      </c>
+      <c r="K54" t="s">
+        <v>346</v>
+      </c>
+      <c r="L54" t="s">
+        <v>347</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>348</v>
+      </c>
+      <c r="O54" t="s">
+        <v>107</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>349</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" t="s">
+        <v>351</v>
+      </c>
+      <c r="K55" t="s">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s">
+        <v>353</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>354</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>356</v>
+      </c>
+      <c r="J56" t="s">
+        <v>357</v>
+      </c>
+      <c r="K56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L56" t="s">
+        <v>359</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>354</v>
+      </c>
+      <c r="O56" t="s">
+        <v>107</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>361</v>
+      </c>
+      <c r="J57" t="s">
+        <v>362</v>
+      </c>
+      <c r="K57" t="s">
+        <v>363</v>
+      </c>
+      <c r="L57" t="s">
+        <v>364</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>342</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>366</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J58" t="s">
+        <v>362</v>
+      </c>
+      <c r="K58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L58" t="s">
+        <v>369</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>354</v>
+      </c>
+      <c r="O58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>370</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>371</v>
+      </c>
+      <c r="J59" t="s">
+        <v>372</v>
+      </c>
+      <c r="K59" t="s">
+        <v>373</v>
+      </c>
+      <c r="L59" t="s">
+        <v>374</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>375</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>376</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>377</v>
+      </c>
+      <c r="J60" t="s">
+        <v>378</v>
+      </c>
+      <c r="K60" t="s">
+        <v>379</v>
+      </c>
+      <c r="L60" t="s">
+        <v>380</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>375</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>383</v>
+      </c>
+      <c r="J61" t="s">
+        <v>384</v>
+      </c>
+      <c r="K61" t="s">
+        <v>385</v>
+      </c>
+      <c r="L61" t="s">
+        <v>386</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>375</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>388</v>
+      </c>
+      <c r="J62" t="s">
+        <v>389</v>
+      </c>
+      <c r="K62" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" t="s">
+        <v>390</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>391</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>393</v>
+      </c>
+      <c r="J63" t="s">
+        <v>394</v>
+      </c>
+      <c r="K63" t="s">
+        <v>395</v>
+      </c>
+      <c r="L63" t="s">
+        <v>396</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>391</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>397</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>398</v>
+      </c>
+      <c r="J64" t="s">
+        <v>399</v>
+      </c>
+      <c r="K64" t="s">
+        <v>400</v>
+      </c>
+      <c r="L64" t="s">
+        <v>401</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>402</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>404</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" t="s">
+        <v>406</v>
+      </c>
+      <c r="K65" t="s">
+        <v>407</v>
+      </c>
+      <c r="L65" t="s">
+        <v>408</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>409</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" t="s">
+        <v>412</v>
+      </c>
+      <c r="K66" t="s">
+        <v>413</v>
+      </c>
+      <c r="L66" t="s">
+        <v>414</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>409</v>
+      </c>
+      <c r="O66" t="s">
+        <v>101</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>415</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>416</v>
+      </c>
+      <c r="J67" t="s">
+        <v>417</v>
+      </c>
+      <c r="K67" t="s">
+        <v>418</v>
+      </c>
+      <c r="L67" t="s">
+        <v>419</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>409</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" t="s">
+        <v>422</v>
+      </c>
+      <c r="K68" t="s">
+        <v>423</v>
+      </c>
+      <c r="L68" t="s">
+        <v>424</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>425</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>426</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" t="s">
+        <v>428</v>
+      </c>
+      <c r="K69" t="s">
+        <v>330</v>
+      </c>
+      <c r="L69" t="s">
+        <v>429</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>430</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>431</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>432</v>
+      </c>
+      <c r="J70" t="s">
+        <v>433</v>
+      </c>
+      <c r="K70" t="s">
+        <v>434</v>
+      </c>
+      <c r="L70" t="s">
+        <v>435</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>430</v>
+      </c>
+      <c r="O70" t="s">
+        <v>101</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>437</v>
+      </c>
+      <c r="J71" t="s">
+        <v>438</v>
+      </c>
+      <c r="K71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L71" t="s">
+        <v>440</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>425</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>441</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>442</v>
+      </c>
+      <c r="J72" t="s">
+        <v>443</v>
+      </c>
+      <c r="K72" t="s">
+        <v>444</v>
+      </c>
+      <c r="L72" t="s">
+        <v>445</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>425</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>446</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>447</v>
+      </c>
+      <c r="J73" t="s">
+        <v>448</v>
+      </c>
+      <c r="K73" t="s">
+        <v>449</v>
+      </c>
+      <c r="L73" t="s">
+        <v>450</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>425</v>
+      </c>
+      <c r="O73" t="s">
+        <v>73</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>451</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>452</v>
+      </c>
+      <c r="J74" t="s">
+        <v>453</v>
+      </c>
+      <c r="K74" t="s">
+        <v>454</v>
+      </c>
+      <c r="L74" t="s">
+        <v>455</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>456</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>457</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>458</v>
+      </c>
+      <c r="J75" t="s">
+        <v>459</v>
+      </c>
+      <c r="K75" t="s">
+        <v>460</v>
+      </c>
+      <c r="L75" t="s">
+        <v>461</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>456</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>462</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>463</v>
+      </c>
+      <c r="J76" t="s">
+        <v>464</v>
+      </c>
+      <c r="K76" t="s">
+        <v>465</v>
+      </c>
+      <c r="L76" t="s">
+        <v>466</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>456</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>467</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>468</v>
+      </c>
+      <c r="J77" t="s">
+        <v>469</v>
+      </c>
+      <c r="K77" t="s">
+        <v>470</v>
+      </c>
+      <c r="L77" t="s">
+        <v>471</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>472</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>474</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>475</v>
+      </c>
+      <c r="J78" t="s">
+        <v>476</v>
+      </c>
+      <c r="K78" t="s">
+        <v>477</v>
+      </c>
+      <c r="L78" t="s">
+        <v>478</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>479</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>480</v>
+      </c>
+      <c r="J79" t="s">
+        <v>481</v>
+      </c>
+      <c r="K79" t="s">
+        <v>482</v>
+      </c>
+      <c r="L79" t="s">
+        <v>483</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>472</v>
+      </c>
+      <c r="O79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>484</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>485</v>
+      </c>
+      <c r="J80" t="s">
+        <v>486</v>
+      </c>
+      <c r="K80" t="s">
+        <v>487</v>
+      </c>
+      <c r="L80" t="s">
+        <v>488</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>489</v>
+      </c>
+      <c r="O80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>490</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>491</v>
+      </c>
+      <c r="J81" t="s">
+        <v>492</v>
+      </c>
+      <c r="K81" t="s">
+        <v>493</v>
+      </c>
+      <c r="L81" t="s">
+        <v>494</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>489</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>496</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>497</v>
+      </c>
+      <c r="J82" t="s">
+        <v>498</v>
+      </c>
+      <c r="K82" t="s">
+        <v>499</v>
+      </c>
+      <c r="L82" t="s">
+        <v>500</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>501</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>502</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>503</v>
+      </c>
+      <c r="J83" t="s">
+        <v>504</v>
+      </c>
+      <c r="K83" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" t="s">
+        <v>505</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>506</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>507</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>508</v>
+      </c>
+      <c r="J84" t="s">
+        <v>509</v>
+      </c>
+      <c r="K84" t="s">
+        <v>510</v>
+      </c>
+      <c r="L84" t="s">
+        <v>511</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>506</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>512</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>513</v>
+      </c>
+      <c r="J85" t="s">
+        <v>514</v>
+      </c>
+      <c r="K85" t="s">
+        <v>515</v>
+      </c>
+      <c r="L85" t="s">
+        <v>516</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>517</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>518</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>519</v>
+      </c>
+      <c r="J86" t="s">
+        <v>520</v>
+      </c>
+      <c r="K86" t="s">
+        <v>521</v>
+      </c>
+      <c r="L86" t="s">
+        <v>522</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>523</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>524</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>525</v>
+      </c>
+      <c r="J87" t="s">
+        <v>526</v>
+      </c>
+      <c r="K87" t="s">
+        <v>527</v>
+      </c>
+      <c r="L87" t="s">
+        <v>528</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>523</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>529</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>530</v>
+      </c>
+      <c r="J88" t="s">
+        <v>531</v>
+      </c>
+      <c r="K88" t="s">
+        <v>532</v>
+      </c>
+      <c r="L88" t="s">
+        <v>533</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>523</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>534</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>535</v>
+      </c>
+      <c r="J89" t="s">
+        <v>536</v>
+      </c>
+      <c r="K89" t="s">
+        <v>330</v>
+      </c>
+      <c r="L89" t="s">
+        <v>537</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>538</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>539</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>540</v>
+      </c>
+      <c r="J90" t="s">
+        <v>541</v>
+      </c>
+      <c r="K90" t="s">
+        <v>542</v>
+      </c>
+      <c r="L90" t="s">
+        <v>543</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>544</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>545</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>546</v>
+      </c>
+      <c r="J91" t="s">
+        <v>547</v>
+      </c>
+      <c r="K91" t="s">
+        <v>548</v>
+      </c>
+      <c r="L91" t="s">
+        <v>549</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>544</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>550</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>551</v>
+      </c>
+      <c r="J92" t="s">
+        <v>552</v>
+      </c>
+      <c r="K92" t="s">
+        <v>553</v>
+      </c>
+      <c r="L92" t="s">
+        <v>554</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>555</v>
+      </c>
+      <c r="O92" t="s">
+        <v>73</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>557</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>558</v>
+      </c>
+      <c r="J93" t="s">
+        <v>559</v>
+      </c>
+      <c r="K93" t="s">
+        <v>560</v>
+      </c>
+      <c r="L93" t="s">
+        <v>561</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>562</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>563</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>564</v>
+      </c>
+      <c r="J94" t="s">
+        <v>565</v>
+      </c>
+      <c r="K94" t="s">
+        <v>566</v>
+      </c>
+      <c r="L94" t="s">
+        <v>567</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>562</v>
+      </c>
+      <c r="O94" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>568</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>569</v>
+      </c>
+      <c r="J95" t="s">
+        <v>570</v>
+      </c>
+      <c r="K95" t="s">
+        <v>571</v>
+      </c>
+      <c r="L95" t="s">
+        <v>572</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>573</v>
+      </c>
+      <c r="O95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>575</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>576</v>
+      </c>
+      <c r="J96" t="s">
+        <v>577</v>
+      </c>
+      <c r="K96" t="s">
+        <v>578</v>
+      </c>
+      <c r="L96" t="s">
+        <v>579</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>580</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>582</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>583</v>
+      </c>
+      <c r="J97" t="s">
+        <v>584</v>
+      </c>
+      <c r="K97" t="s">
+        <v>585</v>
+      </c>
+      <c r="L97" t="s">
+        <v>586</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>587</v>
+      </c>
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>589</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>590</v>
+      </c>
+      <c r="J98" t="s">
+        <v>591</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>592</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>593</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>594</v>
+      </c>
+      <c r="J99" t="s">
+        <v>595</v>
+      </c>
+      <c r="K99" t="s">
+        <v>596</v>
+      </c>
+      <c r="L99" t="s">
+        <v>597</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>598</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>599</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>600</v>
+      </c>
+      <c r="J100" t="s">
+        <v>601</v>
+      </c>
+      <c r="K100" t="s">
+        <v>602</v>
+      </c>
+      <c r="L100" t="s">
+        <v>603</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>604</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>605</v>
+      </c>
+      <c r="J101" t="s">
+        <v>606</v>
+      </c>
+      <c r="K101" t="s">
+        <v>607</v>
+      </c>
+      <c r="L101" t="s">
+        <v>608</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>609</v>
+      </c>
+      <c r="O101" t="s">
+        <v>59</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>610</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>611</v>
+      </c>
+      <c r="J102" t="s">
+        <v>612</v>
+      </c>
+      <c r="K102" t="s">
+        <v>613</v>
+      </c>
+      <c r="L102" t="s">
+        <v>614</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>615</v>
+      </c>
+      <c r="O102" t="s">
+        <v>107</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>617</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>618</v>
+      </c>
+      <c r="J103" t="s">
+        <v>619</v>
+      </c>
+      <c r="K103" t="s">
+        <v>620</v>
+      </c>
+      <c r="L103" t="s">
+        <v>621</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>622</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>623</v>
+      </c>
+      <c r="J104" t="s">
+        <v>624</v>
+      </c>
+      <c r="K104" t="s">
+        <v>625</v>
+      </c>
+      <c r="L104" t="s">
+        <v>626</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>627</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>629</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>630</v>
+      </c>
+      <c r="J105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K105" t="s">
+        <v>632</v>
+      </c>
+      <c r="L105" t="s">
+        <v>633</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>634</v>
+      </c>
+      <c r="O105" t="s">
+        <v>59</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>635</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>636</v>
+      </c>
+      <c r="J106" t="s">
+        <v>637</v>
+      </c>
+      <c r="K106" t="s">
+        <v>638</v>
+      </c>
+      <c r="L106" t="s">
+        <v>639</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>640</v>
+      </c>
+      <c r="O106" t="s">
+        <v>73</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>641</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>642</v>
+      </c>
+      <c r="J107" t="s">
+        <v>643</v>
+      </c>
+      <c r="K107" t="s">
+        <v>644</v>
+      </c>
+      <c r="L107" t="s">
+        <v>645</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>646</v>
+      </c>
+      <c r="O107" t="s">
+        <v>73</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>648</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>649</v>
+      </c>
+      <c r="J108" t="s">
+        <v>650</v>
+      </c>
+      <c r="K108" t="s">
+        <v>651</v>
+      </c>
+      <c r="L108" t="s">
+        <v>652</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>653</v>
+      </c>
+      <c r="O108" t="s">
+        <v>59</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>654</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>655</v>
+      </c>
+      <c r="J109" t="s">
+        <v>656</v>
+      </c>
+      <c r="K109" t="s">
+        <v>657</v>
+      </c>
+      <c r="L109" t="s">
+        <v>658</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>659</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>55839</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>661</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>662</v>
+      </c>
+      <c r="J110" t="s">
+        <v>663</v>
+      </c>
+      <c r="K110" t="s">
+        <v>664</v>
+      </c>
+      <c r="L110" t="s">
+        <v>665</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>666</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_77.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_77.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="775">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>christophervbohl</t>
+  </si>
+  <si>
     <t>06/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>rletoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r580173383-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>lovetoreadeveryday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r561058304-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>We recently booked a stay here with our travel agent at AAA.  Upon arrival, we realized that this property did not deserve a three diamond rating – two diamonds would have been generous.  It had a dismal appearance and butted up against an auto body repair facility.  To our further dismay, the front desk staff proved to be quite incompetent.  In fact, one woman in particular was nasty, arrogant, and full of misinformation.  Although breakfast was included with our stay, the breakfast area was not appealing and didn’t seem sanitary, so we left and ate elsewhere for breakfast.     Although we tried several times to discuss the many problems with the manager by telephone, the staff consistently informed us that she was never available.  The one time that we were able to reach the manager, she told us that she would arrange a time to talk with the owner, but that never materialized either.  We’ve since documented our concerns regarding this property with AAA and with Corporate Best Western.  Our advice to those traveling in this area:  Stay Away From This Property.More</t>
   </si>
   <si>
+    <t>sandral2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r551071278-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>My husband and I were in need of a hotel to stay in due to car troubles.  We are Best Western "Gold" members and we like to stay in Best Westerns when we can.....depending on their prices.  This BW was very pricey but we didn't have the luxury this time to shop around.  It was located by the auto shop we were having our car towed to.  The assistant manager took off a few dollars for the night....but this was the normal discount given for a senior or for a government employee so he really wasn't doing us any favor and he didn't mention it, I had to ask for it.  We had to extend our stay another night and this time we dealt with Summer, the front desk manager.  She was really rude and didn't even "pretend" to have sympathy for our situation.  She was more interested in training the new girl that she forgot that she had customers standing in front of her.  Later during her shift, we passed by the front desk (a couple times...in and out) and she didn't even smile or acknowledge us.  In my opinion, she is in the wrong job!More</t>
   </si>
   <si>
+    <t>Valerie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r549882373-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We have always had a positive experience.  Friendly, professional staff.  Very clean.  Convenient.  I would definitely recommend the hotel to friends.  Cookies when we arrived.  Has a small hotel, homes style feel.</t>
   </si>
   <si>
+    <t>G1156DRalexp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r547983835-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>Our stay was very comfortable.  Hotel lobby, rooms and dining area are very clean and up-to-date decor.  We were offered warm cookies and wine between 5:00-7:00pm.  It was quiet and the breakfast was fresh and good and offered various food options to choose from.</t>
   </si>
   <si>
+    <t>Joanne F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r538645946-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>E3179YQruthh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r537549667-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>This was a great hotel very convenient for our visit to family. Clean comfortable rooms (great air conditioner).  Courteous staff.  Fine breakfast (good waffles) and good beds.  Pretty spacious rooms. There was a noisy group that met in the lobby for a while one night but only for 15-20 minutes.</t>
   </si>
   <si>
+    <t>161ronaldp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r535652723-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ccavena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r532725999-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kanne45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r532770755-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -354,6 +387,9 @@
     <t>It is pricey but very clean, breakfast is always good, with a wide variety of breakfast items.  Wifi is included in the price and if you need anything special when you call the front desk it is almost there immediately.  Very friendly and helpful staff.</t>
   </si>
   <si>
+    <t>Linda R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r532770986-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>Reserved a handicap room (116) months in advance after checking to make sure everything would be in order as I am physically disabled.  Upon arrival,  the bathroom room door opens toward the entry and cannot remain open unless propped open and then only to 45 degrees.  If closed, it would be hard for me to open.  So door remains open but a tight opening between door and wall, which had scrape marks on it.  So to go from /to bathroom was a tight space to maneuver in wheelchair or walker.  Spacious bathroom but grab bars only on left/wall of toilet and in back of toilet which is ADA compliance....but WHO can grab the back bar unless you're a monkey.  Who determines these things if not in a w/c or with a walker?  I extended my right arm and still could not reach the sink counter, so each time my caregiver had to help me.  Many other glitches in the room, but the accessibility issues the worst, plus no manager on site or accessible.  Don't stay here if you are physically disabled.  Lower bed height (25:) was fine but furniture has nothing to do with ADA......see how crazy rules can be?More</t>
   </si>
   <si>
+    <t>950yolandac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r520124751-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Albert J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r518222558-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t>This hotel is well placed and quiet. Close to Azusa Pacific University. close to lots of shopping . Helpful staff. There is local transportation. Rooms are spacious and comfortable. I recommend this hotel highly. The free breakfast was delicious and a plus. Food was high quality. This hotel is well  manged.</t>
   </si>
   <si>
+    <t>ToscaTosca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r518221876-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -414,6 +459,9 @@
     <t>I like this chain in general and this hotel is a good value for the price.  The rooms are comfortable and functional enough, but the decor is dark and dated an some of the mattresses sub-par.  Also, the lighting in the rooms makes it impossible to read at night.   The staff is very helpful and professional.</t>
   </si>
   <si>
+    <t>Art_in_Frisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r507235540-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -435,6 +483,9 @@
     <t>The hotel is clean, quiet, and moderately priced. I enjoyed my stay, and I had intended to book 8 straight weeks of business travel. I asked the clerk whether I could store my 1 suitcase for the weekend between stays. Unlike any other hotel I have stayed in, this hotel could not accommodate my bag. Actually the desk clerk was not able to answer this request without first phoning the hotel manager. The manager declined my request due to ongoing construction. I'm simply sorry that a 50-room hotel has no space to accommodate such a simple request. I need small requests to be satisfied from hotels where I want to conduct business travel, and this refusal showed the height of inconsideration for the needs of their customer. I will not return to be served in this manner, and another hotel will earn my $6000 in lodging.More</t>
   </si>
   <si>
+    <t>Hebrews416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r503054326-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -450,6 +501,9 @@
     <t>Hotel is clean and delivers as expected.  We've stayed here several times and never have any problems.  Pool is in the back which makes for a quite setting. Made our reservations directly on the BW website.  They were nice enough to hold our room for a very late check in.</t>
   </si>
   <si>
+    <t>B4875LEmarkj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r493663049-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -468,6 +522,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>M1826TSmaryw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r492354307-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -481,6 +538,9 @@
   </si>
   <si>
     <t>Very Pleasant! We enjoyed our stay very much ! ! ! Staff was great. really enjoyed the spa. W e  w i l l   b e  b a c k .  the  weather  was  terrific  while  we  were  there. I don't know what else to say, awesome, very convenient in Glendora Ca.</t>
+  </si>
+  <si>
+    <t>HerrMV</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r485648300-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
@@ -510,6 +570,9 @@
 On the first morning I was...I stayed at this hotel for a couple of days back in March. It’s a nice, newer looking, clean hotel right in the midst of a mostly business oriented location on Hwy 66 in Glendora. It is not, however, within a reasonable walking distance of the old downtown Glendora area, unless you really enjoy walking.  My room, located on the second floor, was literally an arms-length away from the elevator door. I was at first concerned that the elevator’s use would create undue noise entering my room, especially at night. It didn’t. Either this was taken into account when the hotel was built, or nobody used the elevator during the evening hours. I cannot say which it was. The rooms were large enough not to feel cramped. It was clean and contained all the amenities you expect in today’s up-to-date hotels, i.e. microwave, refrigerator, coffee maker, etc. The bathroom lights were on some kind of gradual brightness mode. When I first turned them on I thought they were broken. But then the lights slowly became brighter. A nice feature for those late night or early morning trips to the facility. The hot water supply was, well, very hot. I had to be careful not to turn it up too high. The only thing I didn’t like about the bed was the chiclet sized pillows. Having four was nice, but they were far too small.On the first morning I was fairly happy with the Continental breakfast. Nothing special about it, but it was hot and there was plenty of it. On the morning of day two, I was a bit disappointed. It was the same food, served colder. Not the same kind of food. No, it was the same food; overcooked, dried out and cold. Uhg.All in all, yes, I would stay here again. It is not a large hotel. There is no spectacular view from the rooms, but it was quiet and clean, a big plus in my book.More</t>
   </si>
   <si>
+    <t>arlynnh543</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r482525153-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -528,6 +591,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Rudymerc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r475665953-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -546,6 +612,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>veronicagH9092IK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r474870084-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -561,6 +630,9 @@
     <t>Overall it was very clean and presentable. i wish there were water bottles in the room or the vending machine took credit cards. the window view was of a junk yard. nothing much around the area. no one was ever at the front desk had to wait every time i went up to ask for something also my phone didn't work in the room. i do appreciate the new addition of make up remover and having pantene for shampoo and conditioner.</t>
   </si>
   <si>
+    <t>436lyndak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r472818350-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -576,6 +648,9 @@
     <t>Our daughter will be attending Azusa Pacific College in the fall and we stayed here over spring break, very clean &amp; friendly staff.  We also liked the breakfast, it was hot and had many options.  We will stay here again!</t>
   </si>
   <si>
+    <t>TobRic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r455428190-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -594,6 +669,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Howard D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r454026500-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -612,6 +690,9 @@
     <t>This Best Western is rated Number One in Trip Advisor for the Glendora area, and I can see why.  It is new, modern, and also reasonably priced.  The lobby is gorgeous with a grand piano that plays itself.  We had a King Suite with a refrigerator, microwave, and coffee maker.  Also included was a full breakfast with scrambled eggs, bacon, sausage, country potatoes, toast, yogurt, fruit, waffles, juice and coffee.  It was quiet, and the service was great!  The front desk recommended the Peppertree Cafe that was right down the street, and we had a fabulous prime rib dinner, with a baked potato with all of the fixings, with sautéed vegetables, warm homemade french bread, with my favorite ice cream, chocolate chip mint, in front of a roaring fireplace.  I would highly recommend this Best Western that was the best!More</t>
   </si>
   <si>
+    <t>dianea2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r448255572-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -630,6 +711,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>mfsheffield</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r437384864-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -648,6 +732,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Pamela D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r429563112-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -663,6 +750,9 @@
     <t>Found the staff very friendly and helpful. The hotel room and grounds were neat and clean. Only at the hotel one night, but we would stay there again if we are in the area. We did find the bed a little to hard for out taste.</t>
   </si>
   <si>
+    <t>Vic S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r427967726-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -678,6 +768,9 @@
     <t>My friend and I stayed at this hotel this last weekend and we were very impressed with the service, the staff, how clean the hotel was and how comfortable the beds were. We enjoyed a great breakfast and felt that this is a safe and secure hotel.</t>
   </si>
   <si>
+    <t>BluePlate-Now</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r413529525-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -696,6 +789,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>William L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r412108893-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -711,6 +807,9 @@
     <t>We were just there one night. Would have liked more. Room was tastefully decorated, the bed was very comfortable, and the TV was a good quality. Since I always forget my shower cap, I would  have liked one...The breakfast was a wonderful selection of good quality food. Since this was a 'Plus' motel, I was hoping for biscuits and gravy, and they did not disappoint. I wish we had another trip planned to Glendora, but it will be a long while. I would definitely gravitate to another BW Plus, though.</t>
   </si>
   <si>
+    <t>Beverly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r410317490-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -726,6 +825,9 @@
     <t>Very nice rooms with comfortable bed. Usual free hotel breakfast fare. On Friday evening when we arrived there was chilled red or white wine and warm chocolate chip cookies in the lobby.We do not use pool or workout facilities, therefore did not miss not having them. Special note, one day I forgot my I-pod and left it charging in room. No problem still there when I returned.</t>
   </si>
   <si>
+    <t>Lloyd S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r390427030-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -744,6 +846,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Carrie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r389621833-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -759,6 +864,9 @@
     <t>The staff were pleasant and the room was clean and everything worked, however, the beds and pillows were both extra firm to the point of being uncomfortable.  Since the hotel was very convenient to our family gathering and the rates were reasonable, it was acceptable.  The breakfast was about what you'd expect from a fast food restaurant.</t>
   </si>
   <si>
+    <t>oldcolleen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r386624375-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -777,6 +885,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>KDieker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r375952258-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -795,6 +906,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>DMillerLaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r365847432-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -813,6 +927,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Jeanine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r365298388-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -828,6 +945,9 @@
     <t>Hotel rooms and bathrooms are clean.  We feel comfortable staying here as a family with our toddler every time we are in the area.  Pricing is fair especially with a AAA discount.  Free breakfast is questionable, but they do have cereal and yogurt options.</t>
   </si>
   <si>
+    <t>Patrick O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r357730741-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -846,6 +966,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>SleepyNKat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r350722229-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -864,6 +987,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Larry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r345316755-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -882,6 +1008,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Kristine R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r339519265-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -897,6 +1026,9 @@
     <t>The bed sounded like it was full of noisy paper. Check in and check out took 20 minutes each time.  No express checkout. I have had much better experiences at other hotels.  Will not stay here again. The manager yelled at me. The breakfast area was packed too tightly with furniture that people could not navigate around the empty tables. Out of orange juice and workers did not seem to care.</t>
   </si>
   <si>
+    <t>hughw2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r336829077-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -915,6 +1047,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>lcwonder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r329828978-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -933,6 +1068,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Michael D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r321060984-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -951,6 +1089,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>86franh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r314547210-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -969,6 +1110,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Stacy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r308828075-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -984,6 +1128,9 @@
     <t>The hotel itself is clean and nice, but the hotel staff are not friendly. Upon check-in the behind the counter lady did not smile or welcome us to the hotel. It almost seemed as though we were bothering her.  I asked if there was an APU rate and I could not receive a direct answer from her or the gentleman who checked me out. They were hesitant to give me concrete amounts. Next time I will stay somewhere else where APU is valued and they do give excellent rates.</t>
   </si>
   <si>
+    <t>Kathryn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r291645723-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1005,6 +1152,9 @@
     <t>This hotel was disgusting. I arrived at 2 am the night before and went straight to bed. When I woke up the next morning, I found brown stains all over the bed. Honestly, brown stains can only be 1 of 2 or 3 things. Honestly, it looked like dry blood. I flipped out &amp; was completely disgusted. If I would have saw that the night before, I would have NOT slept there. When I called the front desk, the lady was SO rude. I could not believe it. 1) I cannot believe housekeeping would ever think to keep those sheets 2) see those brown stains and think, "oh let's put this on a bed." At this point, it only makes me question EVERY housekeeping protocol they have. I bet they never wash the comforter, who knows what they do with the carpet. I made sure to walk around in my flip flops the entire time. The bed was also so hard that I felt like I was camping outside on the ground. The pillows were also miniature sized. You had to put two of their "normal" pillows together to make a standard pillow size. It was ridiculous. It was just disgusting and I could not believe it. I will stay an hour away just not to stay there ever again and warn others before they do.More</t>
   </si>
   <si>
+    <t>Anne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r289718102-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1020,6 +1170,9 @@
     <t>This Best Western is located on Rt 66 in Glendora.  It was easy to find.  Clean parking lot, front entrance and lkobby.  The room was very spacious. The beds were happily very comfortable. And the  free breakfast was a nice touch.</t>
   </si>
   <si>
+    <t>Eddie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r287082773-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1035,6 +1188,9 @@
     <t>I'd recommend this hotel, I know a lot of people like very soft beds. I do not. But that will not prevent me from going to a Best Western again. I guess I can ask for a harder bed next time. The breakfast was not very great. They didn't have bacon, and the powered eggs seemed too powdery!</t>
   </si>
   <si>
+    <t>Jeff S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r278802488-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1056,6 +1212,9 @@
     <t>I have stayed at this hotel 4 or 5 times in the last 12 months (2014-2015).  We always get a room with a King-size bed.  The bed is comfortable and the room spacious - the views from the rooms are nothing spectacular, but they are quiet and clean.  Free wireless and refrigerator.  I have no complaints except for the check-in process.  The issue here is less about the front desk staff but more about the number of front desk staff (i.e. 1).  The last two times I stayed here, I had pre-paid so only needed to show my ID, credit card and get my room key.  We had to wait for 5-10 minutes though while the lady at the front desk took a phone reservation.  It seemed in each case that there was only one lady working there and so no-one to help us while she finished the call with another client.  Maybe this is how they keep the costs low.  If you can live with waiting to check-in then this hotel is fine and the best place to stay if you are planning to explore Mount Baldy.  Please note that there is not much in this area by way of food options - especially if you prefer something other than fast food.  We keep going to Clubhouse 66 (about a mile away).  It's OK, but nothing special.More</t>
   </si>
   <si>
+    <t>Ceci R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r278906390-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1071,6 +1230,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>ngupta_it</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r274942975-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1089,6 +1251,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>John G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r271045784-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1104,6 +1269,9 @@
     <t>The coffee served for the included breakfast was TERRIBLE!! Because of the lousy coffee I did not bother with the included breakfast.  I have stay at the Best Western Motel in San Dimas, CA numerous times.  The quality of the included breakfast is 1000% better than the Glendora Route 66 Best Western.  For future stays I will be using the San Dimas location.  Although the San Dimas location is an older property and not as conveniently located for my purposes I believe it is a better value because of the quality coffee/breakfast available.</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r270075842-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1122,6 +1290,9 @@
     <t>We stayed at the Best Western Route 66 Glendora Inn from April 11 - 13.  Upon leaving we had accidently left a purse in the nightstand drawer and did not realize it until we were over 300 miles away.  We immediately called the hotel and they said that an employee had turned in the purse to the front desk.  When we arrived back at the hotel and checked the purse we found that an envelope with $440 was missing.  The desk clerk called the owner/manager and informed her of this and the owner/manager said to file a police report.  No apologies were given and a general lack of concern by the owner was the impression we received.  We filed a police report with the Glendora Police Dept, and after 2 weeks they said the owner said that since there were no cameras in the room it was impossible to determine who stole the money.  ONE OF THE EMPLOYEES STOLE THE MONEY since they found the purse locked in the room, turned it in to the front desk and locked it in the safe.  Upon returning the purse to us we found the money to be missing.  The worst experience we have every had while travelling, with a lack of caring and no concern about doing the right thing to rectify the theft.  Needless to say we will never stay at the Best Western Route 66 Glendora Inn again and will...We stayed at the Best Western Route 66 Glendora Inn from April 11 - 13.  Upon leaving we had accidently left a purse in the nightstand drawer and did not realize it until we were over 300 miles away.  We immediately called the hotel and they said that an employee had turned in the purse to the front desk.  When we arrived back at the hotel and checked the purse we found that an envelope with $440 was missing.  The desk clerk called the owner/manager and informed her of this and the owner/manager said to file a police report.  No apologies were given and a general lack of concern by the owner was the impression we received.  We filed a police report with the Glendora Police Dept, and after 2 weeks they said the owner said that since there were no cameras in the room it was impossible to determine who stole the money.  ONE OF THE EMPLOYEES STOLE THE MONEY since they found the purse locked in the room, turned it in to the front desk and locked it in the safe.  Upon returning the purse to us we found the money to be missing.  The worst experience we have every had while travelling, with a lack of caring and no concern about doing the right thing to rectify the theft.  Needless to say we will never stay at the Best Western Route 66 Glendora Inn again and will never recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>6Julie2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r270075352-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1134,6 +1305,9 @@
     <t>We've stayed at this hotel for the last 5 years and are surprised that it hasn't showed it's age a bit. It is still well maintained and very clean, with a well trained staff.  Complementary breakfast is better than most of its kind.</t>
   </si>
   <si>
+    <t>Sandra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r263523886-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1152,6 +1326,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Joseph M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r261576853-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1170,6 +1347,9 @@
     <t>Hidden away in Glendora along the historic Route 66, is a Best Western hotel we found while on our way to Palm Springs from Sacramento.   We didn't know what to expect since we booked the room on the internet for a great price and have been disappointed many times in the past.   Not this time.  The hotel looks great from the outside, and once you enter the lobby you're greeted by a baby grand piano being played by an invisible pianist.  The staff is friendly and the chocolate chip cookies are only the beginning.  The room  is nicely decorated, a the amenities are great.  Large flat screen, coffee maker, hair dryer.  Everything you need and expect.  Free WiFi.  In the morning, you'll get a free breakfast including eggs, bacon, waffles served in a clean, nicely decorated dining room complete with large screen TV.  Once you visit, I'm sure like us, you'll be back.More</t>
   </si>
   <si>
+    <t>Nataliya Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r259697577-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1185,6 +1365,9 @@
     <t>nice quality for the money room was big but plan was not think through - you can not watch tv from the tub... the comforters and towels were old when we open the water first time it was yellow... we need to let it run for a wile and clean the tub before using it ...</t>
   </si>
   <si>
+    <t>Sheri W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r249958668-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1200,6 +1383,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Marguerita F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r249071094-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1215,6 +1401,9 @@
     <t>Compared to other hotels this close to Azusa Pacific University in this price range, it is very good. Very well maintained property, friendly staff, quiet and close to the campus. This was the second visit and I would gladly stay there again.</t>
   </si>
   <si>
+    <t>Pastrebob98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r248462281-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1236,6 +1425,9 @@
     <t>Had to be in Glendora for a funeral.  We made reservations on line for two rooms.  Arrived a couple hours early and were accommodated with early check in.  Good front desk.  The rooms were spotless, well furnished and appointed.  The amenities, toiletries, and linen were a bit better than most equivalent locations.  We had other family members show up with out reservations and they were also accommodated.  I really would have liked to rate the hotel with 5 stars, but I will declare this a 4 1/2 star rating.  The included breakfast on the first day was not great, but good.  On the second day when the second party group had breakfast with my party, the breakfast, in my opinion, was a disappointment to me.  I always head for the biscuits and gravy when it is served.  Loaded up a plate.  Biscuits were room temperature and hard.  Not bad.  I will warm them up with the gravy. Wrong!  The gravy was refrigerator cold.  The kettle was not plugged in.  Note:  I was there one hour after the breakfast time supposedly started.  I feel this was probably just one of those days for the place and don't let it discourage you from staying there.  If I am back in Glendora and need a place to stay, this is where it will be.More</t>
   </si>
   <si>
+    <t>Lori W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r240389407-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1254,6 +1446,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Karen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r239373381-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1269,6 +1464,9 @@
     <t>I grew up in this town and returned after many years to attend my Reunion.  It was a very happy trip and I was glad to have a room at this Best Western.  All the services were great and the room was clean, comfortable and well appointed. I was a bit surprised when the rate was non-negociable offering no discounts for AAA or AARP. I was told it was an independent hotel, not part of the Best Western chain and therefore the rate was firm.  Not a big deal but something a traveler might want to know...</t>
   </si>
   <si>
+    <t>Julie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r237851913-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1284,6 +1482,9 @@
     <t>Based on the competition in the area, I was very happy with this hotel. We were tired after a long day of traveling and the rooms were very comfortable and I slept like a rock. In the AM, I went to the gym down the hall for a little aerobic workout before showering and having breakfast. The menu was OK; I've had better and a lot worse. After we went for a walk in the neighborhood for additional exercise before getting ready for our morning apt. I'd stay there again just for the welcoming comfort at the end of a long day.</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r235123484-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1302,6 +1503,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r234476425-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1317,6 +1521,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Robert P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r234237518-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1332,6 +1539,9 @@
     <t>This is a great clean very well kept up hotel with a great staff. If you are looking for a hotel in the Glendora area this is the only hotel to stay at. We stay here at least 6 to 8 times a year and have never been disappointed. Whenever we stay in the area this is the place.</t>
   </si>
   <si>
+    <t>Bonnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r231991066-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1347,6 +1557,9 @@
     <t>Arrived to a clean and quiet room.  There are train tracks directly behind the complex, but did not experience any noise issues.  Breakfast was available each day with cereal, danishes, bagels, yogurt, coffee, juice, fresh fruit, waffles, and an array of hot prepared foods.  Staff was courteous and competent.  Experienced an issue with the hot water on day of check out, but it was remedied within 15 minutes.  Would recommend and stay at this BW Plus again.</t>
   </si>
   <si>
+    <t>Bermuda78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r229321068-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1362,6 +1575,9 @@
     <t>This is really the only hotel in Glendora worth staying at.  The price was reasonable and the staff helpful.  The room was clean.The continental breakfast is mainly muffins and cereal...but the room had a refrigerator and microwave so you can bring your own food.It was very quiet.  There is a small pool and hot tub outside but we did not use it.</t>
   </si>
   <si>
+    <t>Matthew307</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r227832954-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1377,6 +1593,9 @@
     <t>This hotel is very nice and quiet.  It is on Route 66, a little off the freeway, but was in a quiet neighborhood.  If you are looking for a hotel located in a quiet location, this one is very nice.   Our accommodations were clean and well cared for.  The room was really large.   The pillows were not the most comfortable but this was our only complaint.  The breakfast was decent.</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r226198311-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1395,6 +1614,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>joelm557</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r224963733-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1410,6 +1632,9 @@
     <t>The BEST Best Western we have ever stayed in.  Wonderful location.  Very nicely decorated. Welcoming protocol with complimentary glass of wine and courteous and efficient staff.  Clean room.  Sanitized remote and complimentary slippers.  Several breakfast choices.</t>
   </si>
   <si>
+    <t>Terry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r223544602-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1425,6 +1650,9 @@
     <t>We have no complaints and can only praise our experience with the staff and accomondations at the Glendora, CA Route 66 Best Western. It was nice. It was clean. The staff were friendly and thorough. Thanks!</t>
   </si>
   <si>
+    <t>Diana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r219728196-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1446,6 +1674,9 @@
     <t>We had two great nights here, though we do like firm mattresses. The hotel is beautiful outside and the lobby and rooms were very welcoming and nicely decorated. Either side of the property is not the best (one side looked like RV repair but we never heard a noise from the place. The other side was trailers maybe but with the hotel wall we really didn't notice it.  The hotel seemed liked a beautiful oasis. We would have enjoyed the welcoming cookies but they were all gone and I guess the quota had been made for the night since I joked we would like some.  We didn't use the pool but we did go out to check it out and the pool area was nice.  We did have trouble with the TV but management was right on it.  The breakfast area was big but not as well decorated as the rest of the hotel.  Breakfast was pretty good with a few hot items and the usual cold items.  Surprising no bananas. Their was a mistake on our billing to our credit card I noticed when I got home but management correctly it the next day. We would definitely stay again.More</t>
   </si>
   <si>
+    <t>crazydee61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r219181887-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1461,6 +1692,9 @@
     <t>The room was nice and service was great. Free breakfast was ok...nothing special but it was free. The only issues I found was some mold on wall in bathroom and had trouble with cable service on TV. Also lobby and hallway of hotel was very warm! Do they not beloebe in turning on the air?  It was 95 degrees that day with 48% humidity outside and it felt the same when you entered the hotel. Other than these little issues,had a nice stay. Would stay again.</t>
   </si>
   <si>
+    <t>marigold60763</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r216855034-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1476,6 +1710,9 @@
     <t>The hotel property and our room were OK and clean.  However, the breakfast was about the worst we've had anywhere in terms of food quality.  The air conditioning unit was much too noisy.  In-room internet was so slow, it was virtually unusable.</t>
   </si>
   <si>
+    <t>Arthur G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r209224748-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1494,6 +1731,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Linda O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r208791070-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1512,6 +1752,9 @@
     <t>We chose this hotel because it was fairly close to a business we wished to visit.  It is an attractive, very well maintained and comfortable facility that was in such great condition.  I asked if it were newly built and  I learned that it is seven years old.  Our room was very clean and nicely decorated, and comfortable.While we did not get into the water, we did enjoy relaxing around the attractive pool/spa.  It was comfortable and the landscaping was very attractive.  I was delighted to see, as we were entering the pool area a very large flock of bright green parrot like birds taking flight over the property.I enjoyed finding heavy ceramic coffee cups and nice glass drinking glasses in our room and a good flat screened TV with many channels.  The ice machine that produced plenty of ice very quickly.   The landscaping around the building was, as at the pool, exceptionally well designed and attractive.  Enjoyed the art piece of a grand piano displayed over the entrance complete with money in the tip jar that i felt reflected attention to detail in this establishmentThe few staff we encountered were both efficient and pleasant.The breakfast was fairly standard, but of good quality with abundant choices.More</t>
   </si>
   <si>
+    <t>Julie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r203259824-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1545,6 +1788,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Rosa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r198132551-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1560,6 +1806,9 @@
     <t>In town for a training and stayed at this hotel. It was a very pleasant experience. The staff was very friendly and helpful. I would recommend this hotel for its cleanliness and curteous employees. This is my second time staying at this hotel and if there is another training I will do the same. It is also centrally located near places to eat.</t>
   </si>
   <si>
+    <t>hawk204</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r196081750-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1578,6 +1827,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r190233643-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1596,6 +1848,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Mommy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r189943079-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1611,6 +1866,9 @@
     <t>We stayed there to see the Rose Parade, we stayed one night, the place is small and I was not to sure of the location or look of the Hotel at first.  Once we got into the room I was happy.  It was clean, staff was friendly and it was a quick 20 min to Pasadena.  PLUS, west of the hotel is The Hat restaurant, great convenient place to eat.  Would recommend to you!</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r189957451-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1626,6 +1884,9 @@
     <t>If you are ever in the Glendora/San Dimas/Azusa area of Southern California and need a place to rest, relax, and refresh yourself, then Best Western PLUS Route 66 Glendora Inn is just what you need!!!  The property, facilities, and immenities are superb!  The staff are unbelievably nice and accommodating!  The rooms are so comfortable and roomy! Our son goes to college about a mile down the road and we stay here without hesitation every time we're in town to visit!  Please check them out!  You won't be disappointed!!!  [:-)</t>
   </si>
   <si>
+    <t>Lori G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r187758261-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1641,6 +1902,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Jenifer P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r181895639-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1659,6 +1923,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>tinybubbles1212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r181742248-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1674,6 +1941,9 @@
     <t>I stayed here one night for business. The hotel is decent and clean. The girls at front desk were friendly. The free breakfast is ok, not bad for free. The location is ok, some decent places to eat nearby. Downtown Glendora is about 1.5 miles away, cute little street.</t>
   </si>
   <si>
+    <t>B P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r176814864-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1695,6 +1965,9 @@
     <t>So blessed we found this place (right on Rt 66), stayed here for over a week while we settled our daughter in at APU.  It is about a 5min drive (closest hotel to APU) and felt at home here.   Mini Fridge was a life saver....there is a microwave also, but didn't have a need to use it.  Rooms was spacious and well appointed.  Beds are firm, but way better than saggy or too soft. Water pressure was great and hot water was always there when you turned on the faucet :D  Loved the glass of wine they offer at the front dest in the evenings...always helped us relax after a long day.   Breakfast was good and plentiful.  Staff:  friendly, helpful and a joy!  That goes for the front desk and the housekeeping staff.Unfortunately, we never did get to take a swim in the pool, but it looked inviting.There isn't a restaurant within walking distance, but a short drive away they are plentiful.  Our favorite is in downtown Glendora (5 minutes away) Frisella's - you will also find Classic Coffee in downtown Glendora... if you like coffee this is the place!We will definitely be back!More</t>
   </si>
   <si>
+    <t>Steve C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r176387568-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1713,6 +1986,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>felipejendiroba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r173933657-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1728,6 +2004,9 @@
     <t>A very good hotel for the location, well appointed, nice swimming pool and jacuzzi. Helpful staff, free wifi and parking. Wifi signal was a little weak in my room, but we got it to work. Rooms are very spacious. Free breakfast and a good price. Good value.</t>
   </si>
   <si>
+    <t>Austen7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r168940166-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1749,6 +2028,9 @@
     <t>We stayed for 2 nights at the Best Western Plus in Glendora, CA. Upon turning into the parking lot, we could tell that this hotel is very well cared for. It was beautiful both inside and out, and from the desk clerks to the maids, everyone was friendly and helpful. The only thing that we were unhappy about is the bed; we did not sleep well in it and woke up sore, but we tend to occasionally have this problem on beds we're not used to so it could have been us and not the bed that was the issue. Overall this hotel is a solid 10, and should circumstances bring us back in that area, we would stay there again without hesitation.More</t>
   </si>
   <si>
+    <t>Gene L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r165455341-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1770,6 +2052,9 @@
     <t>The owners of this motel appear to not understand that it is their customers who pay their bills and provide paychecks to their employees.1. Burned out light bulbs in the room.2. Refrigerator not working.3. A full "Free" breakfast offering not even suited to a homeless person than to an experienced traveller (too bad I didn't take a picture of what they called a full breakfast offering). So bad I went out to eat breakfast the three days I had to stay there. 4. A requested wake up call that I made and was assured it was in the system that the desk employee forgot to enter because "I was busy."5. The smallest bar of bath soap I've ever gotten in any hotel anywhere.6. No sense in complaining to the desk staff because they look at you clueless as what to do.The fault was entirely mine for staying at this Best Western because I thought I had made my reservation with another nearby Best Western where I never had a problem with ANYTHING all the many times I stayed there. I first went to that motel and they alerted me to my mistake but couldn't switch the reservation.My best advise. Go to that great Best Western near LaVerne, CA.More</t>
   </si>
   <si>
+    <t>Marilyn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r158667699-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1791,6 +2076,9 @@
     <t>The hotel presentation from outside appearance to inside decoration was wonderful. We were able to check-in early as we were in this area to cycle. Staff very friendly. Laundry facilities a bonus and good quality, efficient. Quiet location for good sleep, bed good, Internet good. Check in and check out good and efficient but check in staff person made you feel like you were going to damage something while you stayed there. It felt like a new hotel but we were told it was because they kept it clean. Lobby area beautiful. Room spacious. Breakfast good, waffles. Good choice of food, no bananas. Wine hospitality served although I had to ask first and then I didn't feel that was right. Loved this place. Would recommend to others. Good value. Great location for our cycling up Mt Baldy, check out scenery on website: cyclingwest.com. Close to eating facilities. Great stay.More</t>
   </si>
   <si>
+    <t>BRAD N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r147373830-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1803,6 +2091,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>CaptCarl_AZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r146656941-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1821,6 +2112,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>CaligirlinTahoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r141341968-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1854,6 +2148,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>HS300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r129430217-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1875,6 +2172,9 @@
     <t>Second stay here and this was better than the first. A friendly welcome and a good size room with king size bed, sofa and desk. Big bathroom with full size tub. The room was on the ground floor, facing the carpark. This turned out to be a bonus as it was was quiet, with very little traffic noise.Breakfast was included and although the hot food wasn't all that inviting, there was plenty of other choices, including cereals,pastries and toast. Plastic cutlery and foam cups detract a bit, but I suppose it  saves on labour costsThe hotel is walking distance to a shopping centre - although it seems noone walks in LA !! Turn left and walk a couple of blocks to find a couple of  cheap restaurants with very good food.Free WI FI is very good and there is also a computer in the foyer for guest use.More</t>
   </si>
   <si>
+    <t>dandwilli2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r126648310-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1890,6 +2190,9 @@
     <t>Recently renovated, but found rooms near the elevator noisy  and walls a bit too thin.</t>
   </si>
   <si>
+    <t>RichardK075</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r114368485-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1911,6 +2214,9 @@
     <t>My daughter and her husband of 45 minutes, returned to the hotel for their wedding night and were asked to leave because their room smelled of smoke. Their cloths smelled because earlier they had smoked outside. After the wedding they returned, exhausted, and were told they could not get back in the room until a cleaning fee had been applied. They were kicked out a a room we had paid for for two nights, we were charged a cleaning fee, and there is no one in authority on the premises that can address the issue. The employee at the desk is a lone worker who is unable to reach the managers who made this decision, even though they were not on site. We came in weeks early to make the reservation, had out of town guests stay at this location and were considering extending the stay. This is how they handled the problem. The cleaning staff smelled smoke and made the inference that they had been smoking in the room. I know Best Western is a franchise, but what kind of management/owner training do they provide? This will be my daughter's wedding memory rather than the ceremony and reception. This is ridiculous.More</t>
   </si>
   <si>
+    <t>scottca075</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r90255833-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1929,6 +2235,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>25or624</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r85874742-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1947,6 +2256,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>Treasurehuntres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r25764964-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1968,6 +2280,9 @@
     <t>We had our wedding reception near this Best Western and so we booked a room for ourselves and my friend from out of town. My girlfriend couldn't make it and so we cancelled her room the night before.When my husband talked to the front desk guy he had said, "Don't worry, you will not be charged." This is where the problem with this place began. We took him for his word. Never used that room and were not expecting a charge for it, per what their employee said.In fact, we were charged. The manager said it was policy even if the employee said differently.This is bad business in my mind. The hotel representative gave us his word and the manager refuses to honor it.BE WARNEDMore</t>
   </si>
   <si>
+    <t>cdeenen_canada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r23012154-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -1986,6 +2301,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>DurangoTroi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r18184283-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
   </si>
   <si>
@@ -2005,6 +2323,9 @@
   </si>
   <si>
     <t>While the experience at the hotel itself was fine, the price billed differered from the price quoted on the phone.  Over a week, the difference was over $250.  When I tried to fix the problem, it took a personal visit, a phone call, and a second call from my husband (whose business regularly sends clients there) to resolve the issue.  The manager had to speak to two employees and both of us because we had, apparantly, not "confirmed" that we wanted the weekly rate instead of the daily rate.  Huh?  Since I had signed a paper agreeing to pay for the whole week (plus any extra charges) for some friends of mine, why would I want the daily rate?  She said she could not handle problems of more than $100 without the employee confirming that we had been quoted the weekly rate.  It became, essentially, the employee's word against ours, but my husband was finally able to resolve it.  It was almost the worst customer service fiasco I have experienced, second only to the hotel that turned off the water in the morning for four hours and offered $5 compensation for the showers we couldn't take.More</t>
+  </si>
+  <si>
+    <t>Julauf</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32432-d657785-r8195685-Best_Western_Plus_Route_66_Glendora_Inn-Glendora_California.html</t>
@@ -2534,43 +2855,47 @@
       <c r="A2" t="n">
         <v>55839</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>158192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2594,50 +2919,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55839</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>158193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2661,50 +2990,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55839</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>158194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2724,50 +3057,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55839</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>158195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2791,50 +3128,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55839</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>115134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2858,50 +3199,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55839</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>158196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2925,50 +3270,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55839</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>29100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2992,50 +3341,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55839</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>158197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3059,50 +3412,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55839</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>158198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3126,50 +3483,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55839</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>158199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3193,50 +3554,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55839</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>158200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3260,50 +3625,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55839</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>15450</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3327,50 +3696,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55839</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>158201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3394,50 +3767,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55839</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>3966</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3461,50 +3838,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55839</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>158202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3528,50 +3909,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55839</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>158203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3585,50 +3970,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55839</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>158204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3652,50 +4041,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55839</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>158205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3719,50 +4112,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55839</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>158206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3786,50 +4183,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55839</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>158207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3847,50 +4248,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55839</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>158208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3914,50 +4319,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55839</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>158209</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3981,50 +4390,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55839</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>158210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4048,50 +4461,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55839</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>158211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>180</v>
       </c>
-      <c r="J25" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" t="s">
-        <v>183</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>160</v>
-      </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4115,50 +4532,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55839</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>158212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>208</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4182,41 +4603,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55839</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>28651</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -4235,50 +4660,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55839</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>158213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4302,50 +4731,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55839</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>158214</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4369,50 +4802,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55839</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>42303</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4436,50 +4873,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55839</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>83937</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4499,50 +4940,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55839</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>158215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4556,50 +5001,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55839</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6532</v>
+      </c>
+      <c r="C33" t="s">
+        <v>255</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4623,50 +5072,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55839</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>52579</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4686,50 +5139,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55839</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>8077</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="J35" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4749,50 +5206,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55839</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>158216</v>
+      </c>
+      <c r="C36" t="s">
+        <v>274</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="J36" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4816,50 +5277,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>55839</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>158217</v>
+      </c>
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4879,50 +5344,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>55839</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>158218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4940,50 +5409,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>55839</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>67978</v>
+      </c>
+      <c r="C39" t="s">
+        <v>294</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5001,50 +5474,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>55839</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>158219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>301</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5066,50 +5543,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>55839</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>21629</v>
+      </c>
+      <c r="C41" t="s">
+        <v>307</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5131,50 +5612,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>55839</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>158220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5198,50 +5683,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>55839</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>15709</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="J43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="K43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -5265,50 +5754,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>55839</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>158221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="J44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="K44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5332,50 +5825,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>55839</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>158222</v>
+      </c>
+      <c r="C45" t="s">
+        <v>334</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="J45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="K45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5399,50 +5896,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>55839</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>158223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>341</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="J46" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5462,50 +5963,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>55839</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="J47" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="K47" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5529,50 +6034,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>55839</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>158224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="J48" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5592,50 +6101,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>55839</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>19399</v>
+      </c>
+      <c r="C49" t="s">
+        <v>362</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="J49" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="K49" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5659,50 +6172,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>55839</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>17644</v>
+      </c>
+      <c r="C50" t="s">
+        <v>368</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="J50" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5726,50 +6243,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>55839</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>17375</v>
+      </c>
+      <c r="C51" t="s">
+        <v>376</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="J51" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5793,50 +6314,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>55839</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>12923</v>
+      </c>
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="J52" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="K52" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5860,50 +6385,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>55839</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>4598</v>
+      </c>
+      <c r="C53" t="s">
+        <v>388</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="J53" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="K53" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5923,50 +6452,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>55839</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>158225</v>
+      </c>
+      <c r="C54" t="s">
+        <v>396</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="J54" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="O54" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5990,50 +6523,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>55839</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>158226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>402</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="J55" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6057,50 +6594,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55839</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>409</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="J56" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="K56" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6124,50 +6665,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>55839</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>9065</v>
+      </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="J57" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="K57" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6191,50 +6736,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>55839</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>158227</v>
+      </c>
+      <c r="C58" t="s">
+        <v>422</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="J58" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="K58" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="O58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6258,50 +6807,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>55839</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>8065</v>
+      </c>
+      <c r="C59" t="s">
+        <v>427</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="J59" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="K59" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="L59" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6325,50 +6878,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>55839</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>14253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>434</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="J60" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="K60" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6392,50 +6949,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>55839</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>158228</v>
+      </c>
+      <c r="C61" t="s">
+        <v>441</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="J61" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="K61" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="L61" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6459,50 +7020,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>55839</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>127631</v>
+      </c>
+      <c r="C62" t="s">
+        <v>447</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="J62" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6526,50 +7091,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>55839</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>158229</v>
+      </c>
+      <c r="C63" t="s">
+        <v>453</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="J63" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6593,50 +7162,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>55839</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>28801</v>
+      </c>
+      <c r="C64" t="s">
+        <v>459</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="J64" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="K64" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="L64" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6656,50 +7229,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>55839</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>57190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>467</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="J65" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="K65" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="L65" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6723,50 +7300,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>55839</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>6384</v>
+      </c>
+      <c r="C66" t="s">
+        <v>474</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>411</v>
+        <v>476</v>
       </c>
       <c r="J66" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="K66" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="L66" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="O66" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -6786,50 +7367,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>55839</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>29551</v>
+      </c>
+      <c r="C67" t="s">
+        <v>480</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="J67" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="K67" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="L67" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6849,50 +7434,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>55839</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>831</v>
+      </c>
+      <c r="C68" t="s">
+        <v>486</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="J68" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="K68" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="L68" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="O68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6906,50 +7495,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>55839</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C69" t="s">
+        <v>493</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="J69" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="K69" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L69" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6973,50 +7566,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>55839</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>7260</v>
+      </c>
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="J70" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="K70" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="L70" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7040,50 +7637,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>55839</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>9342</v>
+      </c>
+      <c r="C71" t="s">
+        <v>505</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="J71" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="K71" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="L71" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7107,50 +7708,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>55839</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>158230</v>
+      </c>
+      <c r="C72" t="s">
+        <v>511</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="J72" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="K72" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="L72" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7168,50 +7773,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>55839</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>158231</v>
+      </c>
+      <c r="C73" t="s">
+        <v>517</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="J73" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="K73" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="O73" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7235,50 +7844,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>55839</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>364</v>
+      </c>
+      <c r="C74" t="s">
+        <v>523</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="J74" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="K74" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="L74" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7302,50 +7915,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>55839</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>158232</v>
+      </c>
+      <c r="C75" t="s">
+        <v>530</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="J75" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="K75" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="L75" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7369,50 +7986,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>55839</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>12584</v>
+      </c>
+      <c r="C76" t="s">
+        <v>536</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="J76" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="K76" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="L76" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7436,50 +8057,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>55839</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>62777</v>
+      </c>
+      <c r="C77" t="s">
+        <v>542</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="J77" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="K77" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="L77" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7499,41 +8124,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>55839</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>158233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>550</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>474</v>
+        <v>551</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>475</v>
+        <v>552</v>
       </c>
       <c r="J78" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="K78" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="L78" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7562,50 +8191,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>55839</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>158234</v>
+      </c>
+      <c r="C79" t="s">
+        <v>556</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="J79" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="K79" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="L79" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="O79" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -7625,50 +8258,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>55839</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>89088</v>
+      </c>
+      <c r="C80" t="s">
+        <v>562</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="J80" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
       <c r="K80" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="L80" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="O80" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7692,50 +8329,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>55839</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>22978</v>
+      </c>
+      <c r="C81" t="s">
+        <v>569</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="J81" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="K81" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="L81" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7759,50 +8400,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>55839</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>3819</v>
+      </c>
+      <c r="C82" t="s">
+        <v>576</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>496</v>
+        <v>577</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>497</v>
+        <v>578</v>
       </c>
       <c r="J82" t="s">
-        <v>498</v>
+        <v>579</v>
       </c>
       <c r="K82" t="s">
-        <v>499</v>
+        <v>580</v>
       </c>
       <c r="L82" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7826,50 +8471,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>55839</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>127631</v>
+      </c>
+      <c r="C83" t="s">
+        <v>447</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>502</v>
+        <v>583</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="J83" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="K83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L83" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7893,50 +8542,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>55839</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>115977</v>
+      </c>
+      <c r="C84" t="s">
+        <v>588</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="J84" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="K84" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="L84" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
       <c r="O84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7960,50 +8613,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>55839</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>127639</v>
+      </c>
+      <c r="C85" t="s">
+        <v>594</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>512</v>
+        <v>595</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>513</v>
+        <v>596</v>
       </c>
       <c r="J85" t="s">
-        <v>514</v>
+        <v>597</v>
       </c>
       <c r="K85" t="s">
-        <v>515</v>
+        <v>598</v>
       </c>
       <c r="L85" t="s">
-        <v>516</v>
+        <v>599</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="O85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8027,50 +8684,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>516</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>55839</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C86" t="s">
+        <v>601</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="J86" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="K86" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="L86" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="O86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8094,50 +8755,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>55839</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>158235</v>
+      </c>
+      <c r="C87" t="s">
+        <v>608</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>525</v>
+        <v>610</v>
       </c>
       <c r="J87" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="K87" t="s">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="L87" t="s">
-        <v>528</v>
+        <v>613</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8161,50 +8826,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>528</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>55839</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C88" t="s">
+        <v>614</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="J88" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="K88" t="s">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="L88" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8228,50 +8897,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>55839</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>21617</v>
+      </c>
+      <c r="C89" t="s">
+        <v>620</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>534</v>
+        <v>621</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>535</v>
+        <v>622</v>
       </c>
       <c r="J89" t="s">
-        <v>536</v>
+        <v>623</v>
       </c>
       <c r="K89" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L89" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>538</v>
+        <v>625</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8295,50 +8968,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>55839</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>158236</v>
+      </c>
+      <c r="C90" t="s">
+        <v>626</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>539</v>
+        <v>627</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>540</v>
+        <v>628</v>
       </c>
       <c r="J90" t="s">
-        <v>541</v>
+        <v>629</v>
       </c>
       <c r="K90" t="s">
-        <v>542</v>
+        <v>630</v>
       </c>
       <c r="L90" t="s">
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="O90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8362,50 +9039,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>543</v>
+        <v>631</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>55839</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>158237</v>
+      </c>
+      <c r="C91" t="s">
+        <v>633</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>545</v>
+        <v>634</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>546</v>
+        <v>635</v>
       </c>
       <c r="J91" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="K91" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="L91" t="s">
-        <v>549</v>
+        <v>638</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="O91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8419,50 +9100,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>549</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>55839</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>40608</v>
+      </c>
+      <c r="C92" t="s">
+        <v>639</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>551</v>
+        <v>641</v>
       </c>
       <c r="J92" t="s">
-        <v>552</v>
+        <v>642</v>
       </c>
       <c r="K92" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="L92" t="s">
-        <v>554</v>
+        <v>644</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>555</v>
+        <v>645</v>
       </c>
       <c r="O92" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8486,50 +9171,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>55839</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>21829</v>
+      </c>
+      <c r="C93" t="s">
+        <v>647</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>557</v>
+        <v>648</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>558</v>
+        <v>649</v>
       </c>
       <c r="J93" t="s">
-        <v>559</v>
+        <v>650</v>
       </c>
       <c r="K93" t="s">
-        <v>560</v>
+        <v>651</v>
       </c>
       <c r="L93" t="s">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8553,50 +9242,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>561</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>55839</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>158238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>654</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>563</v>
+        <v>655</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>564</v>
+        <v>656</v>
       </c>
       <c r="J94" t="s">
-        <v>565</v>
+        <v>657</v>
       </c>
       <c r="K94" t="s">
-        <v>566</v>
+        <v>658</v>
       </c>
       <c r="L94" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="O94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8620,50 +9313,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>55839</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>158239</v>
+      </c>
+      <c r="C95" t="s">
+        <v>660</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>568</v>
+        <v>661</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>569</v>
+        <v>662</v>
       </c>
       <c r="J95" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="K95" t="s">
-        <v>571</v>
+        <v>664</v>
       </c>
       <c r="L95" t="s">
-        <v>572</v>
+        <v>665</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>573</v>
+        <v>666</v>
       </c>
       <c r="O95" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8687,50 +9384,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>55839</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>158240</v>
+      </c>
+      <c r="C96" t="s">
+        <v>668</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>576</v>
+        <v>670</v>
       </c>
       <c r="J96" t="s">
-        <v>577</v>
+        <v>671</v>
       </c>
       <c r="K96" t="s">
-        <v>578</v>
+        <v>672</v>
       </c>
       <c r="L96" t="s">
-        <v>579</v>
+        <v>673</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>580</v>
+        <v>674</v>
       </c>
       <c r="O96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -8754,50 +9455,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>581</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>55839</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C97" t="s">
+        <v>676</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>582</v>
+        <v>677</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>583</v>
+        <v>678</v>
       </c>
       <c r="J97" t="s">
-        <v>584</v>
+        <v>679</v>
       </c>
       <c r="K97" t="s">
-        <v>585</v>
+        <v>680</v>
       </c>
       <c r="L97" t="s">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>587</v>
+        <v>682</v>
       </c>
       <c r="O97" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8821,35 +9526,39 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>588</v>
+        <v>683</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>55839</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>158241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>684</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>590</v>
+        <v>686</v>
       </c>
       <c r="J98" t="s">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8857,10 +9566,10 @@
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -8871,51 +9580,52 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>55839</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>158242</v>
+      </c>
+      <c r="C99" t="s">
+        <v>689</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>593</v>
+        <v>690</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
       <c r="J99" t="s">
-        <v>595</v>
+        <v>692</v>
       </c>
       <c r="K99" t="s">
-        <v>596</v>
+        <v>693</v>
       </c>
       <c r="L99" t="s">
-        <v>597</v>
+        <v>694</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8939,41 +9649,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>597</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>55839</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>158243</v>
+      </c>
+      <c r="C100" t="s">
+        <v>696</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>599</v>
+        <v>697</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>600</v>
+        <v>698</v>
       </c>
       <c r="J100" t="s">
-        <v>601</v>
+        <v>699</v>
       </c>
       <c r="K100" t="s">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="L100" t="s">
-        <v>603</v>
+        <v>701</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
@@ -9002,50 +9716,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>603</v>
+        <v>701</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>55839</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>127639</v>
+      </c>
+      <c r="C101" t="s">
+        <v>594</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>604</v>
+        <v>702</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
       <c r="J101" t="s">
-        <v>606</v>
+        <v>704</v>
       </c>
       <c r="K101" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="L101" t="s">
-        <v>608</v>
+        <v>706</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>609</v>
+        <v>707</v>
       </c>
       <c r="O101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9069,50 +9787,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>608</v>
+        <v>706</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>55839</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>158244</v>
+      </c>
+      <c r="C102" t="s">
+        <v>708</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>611</v>
+        <v>710</v>
       </c>
       <c r="J102" t="s">
-        <v>612</v>
+        <v>711</v>
       </c>
       <c r="K102" t="s">
-        <v>613</v>
+        <v>712</v>
       </c>
       <c r="L102" t="s">
-        <v>614</v>
+        <v>713</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>615</v>
+        <v>714</v>
       </c>
       <c r="O102" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9136,41 +9858,45 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>616</v>
+        <v>715</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>55839</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>158245</v>
+      </c>
+      <c r="C103" t="s">
+        <v>716</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>618</v>
+        <v>718</v>
       </c>
       <c r="J103" t="s">
-        <v>619</v>
+        <v>719</v>
       </c>
       <c r="K103" t="s">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="L103" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
@@ -9199,50 +9925,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>55839</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>158246</v>
+      </c>
+      <c r="C104" t="s">
+        <v>722</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>622</v>
+        <v>723</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>623</v>
+        <v>724</v>
       </c>
       <c r="J104" t="s">
-        <v>624</v>
+        <v>725</v>
       </c>
       <c r="K104" t="s">
-        <v>625</v>
+        <v>726</v>
       </c>
       <c r="L104" t="s">
-        <v>626</v>
+        <v>727</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>627</v>
+        <v>728</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9258,50 +9988,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>628</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>55839</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>158247</v>
+      </c>
+      <c r="C105" t="s">
+        <v>730</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>629</v>
+        <v>731</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="J105" t="s">
-        <v>631</v>
+        <v>733</v>
       </c>
       <c r="K105" t="s">
-        <v>632</v>
+        <v>734</v>
       </c>
       <c r="L105" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="O105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9325,50 +10059,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>55839</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>158248</v>
+      </c>
+      <c r="C106" t="s">
+        <v>737</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>635</v>
+        <v>738</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>636</v>
+        <v>739</v>
       </c>
       <c r="J106" t="s">
-        <v>637</v>
+        <v>740</v>
       </c>
       <c r="K106" t="s">
-        <v>638</v>
+        <v>741</v>
       </c>
       <c r="L106" t="s">
-        <v>639</v>
+        <v>742</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>640</v>
+        <v>743</v>
       </c>
       <c r="O106" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9392,50 +10130,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>639</v>
+        <v>742</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>55839</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>158249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>744</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>641</v>
+        <v>745</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>642</v>
+        <v>746</v>
       </c>
       <c r="J107" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="K107" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="L107" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>646</v>
+        <v>750</v>
       </c>
       <c r="O107" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P107" t="n">
         <v>3</v>
@@ -9459,50 +10201,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>55839</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>158250</v>
+      </c>
+      <c r="C108" t="s">
+        <v>752</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>648</v>
+        <v>753</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>649</v>
+        <v>754</v>
       </c>
       <c r="J108" t="s">
-        <v>650</v>
+        <v>755</v>
       </c>
       <c r="K108" t="s">
-        <v>651</v>
+        <v>756</v>
       </c>
       <c r="L108" t="s">
-        <v>652</v>
+        <v>757</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>653</v>
+        <v>758</v>
       </c>
       <c r="O108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9526,50 +10272,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>652</v>
+        <v>757</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>55839</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>158251</v>
+      </c>
+      <c r="C109" t="s">
+        <v>759</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>655</v>
+        <v>761</v>
       </c>
       <c r="J109" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
       <c r="K109" t="s">
-        <v>657</v>
+        <v>763</v>
       </c>
       <c r="L109" t="s">
-        <v>658</v>
+        <v>764</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>659</v>
+        <v>765</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -9593,50 +10343,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>660</v>
+        <v>766</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>55839</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>158252</v>
+      </c>
+      <c r="C110" t="s">
+        <v>767</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>661</v>
+        <v>768</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>662</v>
+        <v>769</v>
       </c>
       <c r="J110" t="s">
-        <v>663</v>
+        <v>770</v>
       </c>
       <c r="K110" t="s">
-        <v>664</v>
+        <v>771</v>
       </c>
       <c r="L110" t="s">
-        <v>665</v>
+        <v>772</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>666</v>
+        <v>773</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9660,7 +10414,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>667</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
